--- a/202304/04_単体テスト/04_単体試験仕様書/チーム1/ログイン画面_単体テスト.xlsx
+++ b/202304/04_単体テスト/04_単体試験仕様書/チーム1/ログイン画面_単体テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\20230402\202304\04_単体テスト\04_単体試験仕様書\チーム1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC5189-7ED5-464D-B15D-DE384CE7056E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E72F258-182F-4F2E-9AE6-719EC2EF1D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="804" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2040" yWindow="-11363" windowWidth="16200" windowHeight="9983" tabRatio="804" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初期画面表示" sheetId="36" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>単体試験仕様書</t>
   </si>
@@ -235,9 +235,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>張</t>
     <rPh sb="0" eb="1">
       <t>チョウ</t>
@@ -360,7 +357,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -730,6 +733,45 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -766,49 +808,79 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,77 +901,10 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="56" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1464,129 +1469,129 @@
       <selection activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="9.4"/>
   <cols>
-    <col min="1" max="10" width="2.625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="16" customWidth="1"/>
-    <col min="12" max="35" width="2.625" style="15"/>
+    <col min="1" max="10" width="2.59765625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="2.59765625" style="16" customWidth="1"/>
+    <col min="12" max="35" width="2.59765625" style="15"/>
     <col min="36" max="36" width="19" style="15" customWidth="1"/>
-    <col min="37" max="38" width="2.625" style="15"/>
-    <col min="39" max="39" width="1.125" style="15" customWidth="1"/>
-    <col min="40" max="41" width="2.625" style="15" hidden="1" customWidth="1"/>
-    <col min="42" max="16384" width="2.625" style="15"/>
+    <col min="37" max="38" width="2.59765625" style="15"/>
+    <col min="39" max="39" width="1.1328125" style="15" customWidth="1"/>
+    <col min="40" max="41" width="2.59765625" style="15" hidden="1" customWidth="1"/>
+    <col min="42" max="16384" width="2.59765625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="22" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="46" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="22" t="s">
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="25" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="25" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="36" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="24"/>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="37" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="37" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43">
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="31">
         <v>45040</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="31">
         <v>45040</v>
       </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
-    </row>
-    <row r="3" spans="1:42" ht="13.5">
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="33"/>
+    </row>
+    <row r="3" spans="1:42" ht="12.75">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1630,7 +1635,7 @@
       <c r="AO3" s="11"/>
       <c r="AP3" s="11"/>
     </row>
-    <row r="4" spans="1:42" ht="13.5">
+    <row r="4" spans="1:42" ht="12.75">
       <c r="A4" s="11"/>
       <c r="B4" s="17" t="s">
         <v>14</v>
@@ -1676,7 +1681,7 @@
       <c r="AO4" s="11"/>
       <c r="AP4" s="11"/>
     </row>
-    <row r="5" spans="1:42" ht="13.5">
+    <row r="5" spans="1:42" ht="12.75">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1720,7 +1725,7 @@
       <c r="AO5" s="11"/>
       <c r="AP5" s="11"/>
     </row>
-    <row r="6" spans="1:42" ht="13.5">
+    <row r="6" spans="1:42" ht="12.75">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1764,7 +1769,7 @@
       <c r="AO6" s="11"/>
       <c r="AP6" s="11"/>
     </row>
-    <row r="7" spans="1:42" ht="13.5">
+    <row r="7" spans="1:42" ht="12.75">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1808,7 +1813,7 @@
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
     </row>
-    <row r="8" spans="1:42" ht="13.5">
+    <row r="8" spans="1:42" ht="12.75">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1852,7 +1857,7 @@
       <c r="AO8" s="11"/>
       <c r="AP8" s="11"/>
     </row>
-    <row r="9" spans="1:42" ht="13.5">
+    <row r="9" spans="1:42" ht="12.75">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1896,7 +1901,7 @@
       <c r="AO9" s="11"/>
       <c r="AP9" s="11"/>
     </row>
-    <row r="10" spans="1:42" ht="13.5">
+    <row r="10" spans="1:42" ht="12.75">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1940,7 +1945,7 @@
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
     </row>
-    <row r="11" spans="1:42" ht="13.5">
+    <row r="11" spans="1:42" ht="12.75">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1984,7 +1989,7 @@
       <c r="AO11" s="11"/>
       <c r="AP11" s="11"/>
     </row>
-    <row r="12" spans="1:42" ht="13.5">
+    <row r="12" spans="1:42" ht="12.75">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -2028,7 +2033,7 @@
       <c r="AO12" s="11"/>
       <c r="AP12" s="11"/>
     </row>
-    <row r="13" spans="1:42" ht="13.5">
+    <row r="13" spans="1:42" ht="12.75">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -2072,7 +2077,7 @@
       <c r="AO13" s="11"/>
       <c r="AP13" s="11"/>
     </row>
-    <row r="14" spans="1:42" ht="13.5">
+    <row r="14" spans="1:42" ht="12.75">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2116,7 +2121,7 @@
       <c r="AO14" s="11"/>
       <c r="AP14" s="11"/>
     </row>
-    <row r="15" spans="1:42" ht="13.5">
+    <row r="15" spans="1:42" ht="12.75">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2160,7 +2165,7 @@
       <c r="AO15" s="11"/>
       <c r="AP15" s="11"/>
     </row>
-    <row r="16" spans="1:42" ht="13.5">
+    <row r="16" spans="1:42" ht="12.75">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2204,7 +2209,7 @@
       <c r="AO16" s="11"/>
       <c r="AP16" s="11"/>
     </row>
-    <row r="17" spans="1:42" ht="13.5">
+    <row r="17" spans="1:42" ht="12.75">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2248,7 +2253,7 @@
       <c r="AO17" s="11"/>
       <c r="AP17" s="11"/>
     </row>
-    <row r="18" spans="1:42" ht="13.5">
+    <row r="18" spans="1:42" ht="12.75">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2292,7 +2297,7 @@
       <c r="AO18" s="11"/>
       <c r="AP18" s="11"/>
     </row>
-    <row r="19" spans="1:42" ht="13.5">
+    <row r="19" spans="1:42" ht="12.75">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2336,7 +2341,7 @@
       <c r="AO19" s="11"/>
       <c r="AP19" s="11"/>
     </row>
-    <row r="20" spans="1:42" ht="13.5">
+    <row r="20" spans="1:42" ht="12.75">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2380,7 +2385,7 @@
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
     </row>
-    <row r="21" spans="1:42" ht="13.5">
+    <row r="21" spans="1:42" ht="12.75">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2426,7 +2431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="13.5">
+    <row r="22" spans="1:42" ht="12.75">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2470,7 +2475,7 @@
       <c r="AO22" s="11"/>
       <c r="AP22" s="11"/>
     </row>
-    <row r="23" spans="1:42" ht="13.5">
+    <row r="23" spans="1:42" ht="12.75">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2514,7 +2519,7 @@
       <c r="AO23" s="11"/>
       <c r="AP23" s="11"/>
     </row>
-    <row r="24" spans="1:42" ht="13.5">
+    <row r="24" spans="1:42" ht="12.75">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2558,7 +2563,7 @@
       <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
     </row>
-    <row r="25" spans="1:42" ht="13.5">
+    <row r="25" spans="1:42" ht="12.75">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2602,7 +2607,7 @@
       <c r="AO25" s="11"/>
       <c r="AP25" s="11"/>
     </row>
-    <row r="26" spans="1:42" ht="13.5">
+    <row r="26" spans="1:42" ht="12.75">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2646,7 +2651,7 @@
       <c r="AO26" s="11"/>
       <c r="AP26" s="11"/>
     </row>
-    <row r="27" spans="1:42" ht="13.5">
+    <row r="27" spans="1:42" ht="12.75">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2690,7 +2695,7 @@
       <c r="AO27" s="11"/>
       <c r="AP27" s="11"/>
     </row>
-    <row r="28" spans="1:42" ht="13.5">
+    <row r="28" spans="1:42" ht="12.75">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2734,7 +2739,7 @@
       <c r="AO28" s="11"/>
       <c r="AP28" s="11"/>
     </row>
-    <row r="29" spans="1:42" ht="13.5">
+    <row r="29" spans="1:42" ht="12.75">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2778,7 +2783,7 @@
       <c r="AO29" s="11"/>
       <c r="AP29" s="11"/>
     </row>
-    <row r="30" spans="1:42" ht="13.5">
+    <row r="30" spans="1:42" ht="12.75">
       <c r="A30" s="18"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2822,7 +2827,7 @@
       <c r="AO30" s="11"/>
       <c r="AP30" s="11"/>
     </row>
-    <row r="31" spans="1:42" ht="13.5">
+    <row r="31" spans="1:42" ht="12.75">
       <c r="A31" s="18"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2866,7 +2871,7 @@
       <c r="AO31" s="11"/>
       <c r="AP31" s="11"/>
     </row>
-    <row r="32" spans="1:42" ht="13.5">
+    <row r="32" spans="1:42" ht="12.75">
       <c r="A32" s="18"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2910,7 +2915,7 @@
       <c r="AO32" s="11"/>
       <c r="AP32" s="11"/>
     </row>
-    <row r="33" spans="1:42" ht="13.5">
+    <row r="33" spans="1:42" ht="12.75">
       <c r="A33" s="18"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2954,7 +2959,7 @@
       <c r="AO33" s="11"/>
       <c r="AP33" s="11"/>
     </row>
-    <row r="34" spans="1:42" ht="13.5">
+    <row r="34" spans="1:42" ht="12.75">
       <c r="A34" s="18"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2998,7 +3003,7 @@
       <c r="AO34" s="11"/>
       <c r="AP34" s="11"/>
     </row>
-    <row r="35" spans="1:42" ht="13.5">
+    <row r="35" spans="1:42" ht="12.75">
       <c r="A35" s="18"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3042,7 +3047,7 @@
       <c r="AO35" s="11"/>
       <c r="AP35" s="11"/>
     </row>
-    <row r="36" spans="1:42" ht="13.5">
+    <row r="36" spans="1:42" ht="12.75">
       <c r="A36" s="18"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3086,7 +3091,7 @@
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
     </row>
-    <row r="37" spans="1:42" ht="13.5">
+    <row r="37" spans="1:42" ht="12.75">
       <c r="A37" s="18"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3130,7 +3135,7 @@
       <c r="AO37" s="11"/>
       <c r="AP37" s="11"/>
     </row>
-    <row r="38" spans="1:42" ht="13.5">
+    <row r="38" spans="1:42" ht="12.75">
       <c r="A38" s="18"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3174,7 +3179,7 @@
       <c r="AO38" s="11"/>
       <c r="AP38" s="11"/>
     </row>
-    <row r="39" spans="1:42" ht="13.5">
+    <row r="39" spans="1:42" ht="12.75">
       <c r="A39" s="18"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3218,7 +3223,7 @@
       <c r="AO39" s="11"/>
       <c r="AP39" s="11"/>
     </row>
-    <row r="40" spans="1:42" ht="13.5">
+    <row r="40" spans="1:42" ht="12.75">
       <c r="A40" s="18"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3262,7 +3267,7 @@
       <c r="AO40" s="11"/>
       <c r="AP40" s="11"/>
     </row>
-    <row r="41" spans="1:42" ht="13.5">
+    <row r="41" spans="1:42" ht="12.75">
       <c r="A41" s="18"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3306,7 +3311,7 @@
       <c r="AO41" s="11"/>
       <c r="AP41" s="11"/>
     </row>
-    <row r="42" spans="1:42" ht="13.5">
+    <row r="42" spans="1:42" ht="12.75">
       <c r="A42" s="18"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3350,7 +3355,7 @@
       <c r="AO42" s="11"/>
       <c r="AP42" s="11"/>
     </row>
-    <row r="43" spans="1:42" ht="13.5">
+    <row r="43" spans="1:42" ht="12.75">
       <c r="A43" s="18"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -3394,7 +3399,7 @@
       <c r="AO43" s="11"/>
       <c r="AP43" s="11"/>
     </row>
-    <row r="44" spans="1:42" ht="13.5">
+    <row r="44" spans="1:42" ht="12.75">
       <c r="A44" s="18"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3438,7 +3443,7 @@
       <c r="AO44" s="11"/>
       <c r="AP44" s="11"/>
     </row>
-    <row r="45" spans="1:42" ht="13.5">
+    <row r="45" spans="1:42" ht="12.75">
       <c r="A45" s="18"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3482,7 +3487,7 @@
       <c r="AO45" s="11"/>
       <c r="AP45" s="11"/>
     </row>
-    <row r="46" spans="1:42" ht="13.5">
+    <row r="46" spans="1:42" ht="12.75">
       <c r="A46" s="18"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3526,7 +3531,7 @@
       <c r="AO46" s="11"/>
       <c r="AP46" s="11"/>
     </row>
-    <row r="47" spans="1:42" ht="13.5">
+    <row r="47" spans="1:42" ht="12.75">
       <c r="A47" s="18"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3570,7 +3575,7 @@
       <c r="AO47" s="11"/>
       <c r="AP47" s="11"/>
     </row>
-    <row r="48" spans="1:42" ht="13.5">
+    <row r="48" spans="1:42" ht="12.75">
       <c r="A48" s="18"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -3614,7 +3619,7 @@
       <c r="AO48" s="11"/>
       <c r="AP48" s="11"/>
     </row>
-    <row r="49" spans="1:42" ht="13.5">
+    <row r="49" spans="1:42" ht="12.75">
       <c r="A49" s="18"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -3658,7 +3663,7 @@
       <c r="AO49" s="11"/>
       <c r="AP49" s="11"/>
     </row>
-    <row r="50" spans="1:42" ht="13.5">
+    <row r="50" spans="1:42" ht="12.75">
       <c r="A50" s="18"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3702,7 +3707,7 @@
       <c r="AO50" s="11"/>
       <c r="AP50" s="11"/>
     </row>
-    <row r="51" spans="1:42" ht="13.5">
+    <row r="51" spans="1:42" ht="12.75">
       <c r="A51" s="18"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -3746,7 +3751,7 @@
       <c r="AO51" s="11"/>
       <c r="AP51" s="11"/>
     </row>
-    <row r="52" spans="1:42" ht="13.5">
+    <row r="52" spans="1:42" ht="12.75">
       <c r="A52" s="19"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -3790,7 +3795,7 @@
       <c r="AO52" s="11"/>
       <c r="AP52" s="11"/>
     </row>
-    <row r="53" spans="1:42" ht="13.5">
+    <row r="53" spans="1:42" ht="12.75">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -3833,7 +3838,7 @@
       <c r="AO53" s="11"/>
       <c r="AP53" s="11"/>
     </row>
-    <row r="54" spans="1:42" ht="13.5">
+    <row r="54" spans="1:42" ht="12.75">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -3876,7 +3881,7 @@
       <c r="AO54" s="11"/>
       <c r="AP54" s="11"/>
     </row>
-    <row r="55" spans="1:42" ht="13.5">
+    <row r="55" spans="1:42" ht="12.75">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -3919,7 +3924,7 @@
       <c r="AO55" s="11"/>
       <c r="AP55" s="11"/>
     </row>
-    <row r="56" spans="1:42" ht="13.5">
+    <row r="56" spans="1:42" ht="12.75">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -3962,7 +3967,7 @@
       <c r="AO56" s="11"/>
       <c r="AP56" s="11"/>
     </row>
-    <row r="57" spans="1:42" ht="13.5">
+    <row r="57" spans="1:42" ht="12.75">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -4005,7 +4010,7 @@
       <c r="AO57" s="11"/>
       <c r="AP57" s="11"/>
     </row>
-    <row r="58" spans="1:42" ht="13.5">
+    <row r="58" spans="1:42" ht="12.75">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -4048,7 +4053,7 @@
       <c r="AO58" s="11"/>
       <c r="AP58" s="11"/>
     </row>
-    <row r="59" spans="1:42" ht="13.5">
+    <row r="59" spans="1:42" ht="12.75">
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -4091,7 +4096,7 @@
       <c r="AO59" s="11"/>
       <c r="AP59" s="11"/>
     </row>
-    <row r="60" spans="1:42" ht="13.5">
+    <row r="60" spans="1:42" ht="12.75">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -4134,7 +4139,7 @@
       <c r="AO60" s="11"/>
       <c r="AP60" s="11"/>
     </row>
-    <row r="61" spans="1:42" ht="13.5">
+    <row r="61" spans="1:42" ht="12.75">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -4177,7 +4182,7 @@
       <c r="AO61" s="11"/>
       <c r="AP61" s="11"/>
     </row>
-    <row r="62" spans="1:42" ht="13.5">
+    <row r="62" spans="1:42" ht="12.75">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -4220,7 +4225,7 @@
       <c r="AO62" s="11"/>
       <c r="AP62" s="11"/>
     </row>
-    <row r="63" spans="1:42" ht="13.5">
+    <row r="63" spans="1:42" ht="12.75">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -4263,7 +4268,7 @@
       <c r="AO63" s="11"/>
       <c r="AP63" s="11"/>
     </row>
-    <row r="64" spans="1:42" ht="13.5">
+    <row r="64" spans="1:42" ht="12.75">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -4306,7 +4311,7 @@
       <c r="AO64" s="11"/>
       <c r="AP64" s="11"/>
     </row>
-    <row r="65" spans="2:42" ht="13.5">
+    <row r="65" spans="2:42" ht="12.75">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -4349,7 +4354,7 @@
       <c r="AO65" s="11"/>
       <c r="AP65" s="11"/>
     </row>
-    <row r="66" spans="2:42" ht="13.5">
+    <row r="66" spans="2:42" ht="12.75">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -4392,7 +4397,7 @@
       <c r="AO66" s="11"/>
       <c r="AP66" s="11"/>
     </row>
-    <row r="67" spans="2:42" ht="13.5">
+    <row r="67" spans="2:42" ht="12.75">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -4435,7 +4440,7 @@
       <c r="AO67" s="11"/>
       <c r="AP67" s="11"/>
     </row>
-    <row r="68" spans="2:42" ht="13.5">
+    <row r="68" spans="2:42" ht="12.75">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -4478,7 +4483,7 @@
       <c r="AO68" s="11"/>
       <c r="AP68" s="11"/>
     </row>
-    <row r="69" spans="2:42" ht="13.5">
+    <row r="69" spans="2:42" ht="12.75">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -4521,7 +4526,7 @@
       <c r="AO69" s="11"/>
       <c r="AP69" s="11"/>
     </row>
-    <row r="70" spans="2:42" ht="13.5">
+    <row r="70" spans="2:42" ht="12.75">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -4564,7 +4569,7 @@
       <c r="AO70" s="11"/>
       <c r="AP70" s="11"/>
     </row>
-    <row r="71" spans="2:42" ht="13.5">
+    <row r="71" spans="2:42" ht="12.75">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -4607,7 +4612,7 @@
       <c r="AO71" s="11"/>
       <c r="AP71" s="11"/>
     </row>
-    <row r="72" spans="2:42" ht="13.5">
+    <row r="72" spans="2:42" ht="12.75">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -4650,7 +4655,7 @@
       <c r="AO72" s="11"/>
       <c r="AP72" s="11"/>
     </row>
-    <row r="73" spans="2:42" ht="13.5">
+    <row r="73" spans="2:42" ht="12.75">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -4693,7 +4698,7 @@
       <c r="AO73" s="11"/>
       <c r="AP73" s="11"/>
     </row>
-    <row r="74" spans="2:42" ht="13.5">
+    <row r="74" spans="2:42" ht="12.75">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -4736,7 +4741,7 @@
       <c r="AO74" s="11"/>
       <c r="AP74" s="11"/>
     </row>
-    <row r="75" spans="2:42" ht="13.5">
+    <row r="75" spans="2:42" ht="12.75">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -4779,7 +4784,7 @@
       <c r="AO75" s="11"/>
       <c r="AP75" s="11"/>
     </row>
-    <row r="76" spans="2:42" ht="13.5">
+    <row r="76" spans="2:42" ht="12.75">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -4822,7 +4827,7 @@
       <c r="AO76" s="11"/>
       <c r="AP76" s="11"/>
     </row>
-    <row r="77" spans="2:42" ht="13.5">
+    <row r="77" spans="2:42" ht="12.75">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -4865,7 +4870,7 @@
       <c r="AO77" s="11"/>
       <c r="AP77" s="11"/>
     </row>
-    <row r="78" spans="2:42" ht="13.5">
+    <row r="78" spans="2:42" ht="12.75">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -4908,7 +4913,7 @@
       <c r="AO78" s="11"/>
       <c r="AP78" s="11"/>
     </row>
-    <row r="79" spans="2:42" ht="13.5">
+    <row r="79" spans="2:42" ht="12.75">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -4951,7 +4956,7 @@
       <c r="AO79" s="11"/>
       <c r="AP79" s="11"/>
     </row>
-    <row r="80" spans="2:42" ht="13.5">
+    <row r="80" spans="2:42" ht="12.75">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -4994,7 +4999,7 @@
       <c r="AO80" s="11"/>
       <c r="AP80" s="11"/>
     </row>
-    <row r="81" spans="2:42" ht="13.5">
+    <row r="81" spans="2:42" ht="12.75">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -5037,7 +5042,7 @@
       <c r="AO81" s="11"/>
       <c r="AP81" s="11"/>
     </row>
-    <row r="82" spans="2:42" ht="13.5">
+    <row r="82" spans="2:42" ht="12.75">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -5080,7 +5085,7 @@
       <c r="AO82" s="11"/>
       <c r="AP82" s="11"/>
     </row>
-    <row r="83" spans="2:42" ht="13.5">
+    <row r="83" spans="2:42" ht="12.75">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -5123,7 +5128,7 @@
       <c r="AO83" s="11"/>
       <c r="AP83" s="11"/>
     </row>
-    <row r="84" spans="2:42" ht="13.5">
+    <row r="84" spans="2:42" ht="12.75">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -5166,7 +5171,7 @@
       <c r="AO84" s="11"/>
       <c r="AP84" s="11"/>
     </row>
-    <row r="85" spans="2:42" ht="13.5">
+    <row r="85" spans="2:42" ht="12.75">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -5209,7 +5214,7 @@
       <c r="AO85" s="11"/>
       <c r="AP85" s="11"/>
     </row>
-    <row r="86" spans="2:42" ht="13.5">
+    <row r="86" spans="2:42" ht="12.75">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -5252,7 +5257,7 @@
       <c r="AO86" s="11"/>
       <c r="AP86" s="11"/>
     </row>
-    <row r="87" spans="2:42" ht="13.5">
+    <row r="87" spans="2:42" ht="12.75">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -5295,7 +5300,7 @@
       <c r="AO87" s="11"/>
       <c r="AP87" s="11"/>
     </row>
-    <row r="88" spans="2:42" ht="13.5">
+    <row r="88" spans="2:42" ht="12.75">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -5338,7 +5343,7 @@
       <c r="AO88" s="11"/>
       <c r="AP88" s="11"/>
     </row>
-    <row r="89" spans="2:42" ht="13.5">
+    <row r="89" spans="2:42" ht="12.75">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -5381,7 +5386,7 @@
       <c r="AO89" s="11"/>
       <c r="AP89" s="11"/>
     </row>
-    <row r="90" spans="2:42" ht="13.5">
+    <row r="90" spans="2:42" ht="12.75">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -5424,7 +5429,7 @@
       <c r="AO90" s="11"/>
       <c r="AP90" s="11"/>
     </row>
-    <row r="91" spans="2:42" ht="13.5">
+    <row r="91" spans="2:42" ht="12.75">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -5467,7 +5472,7 @@
       <c r="AO91" s="11"/>
       <c r="AP91" s="11"/>
     </row>
-    <row r="92" spans="2:42" ht="13.5">
+    <row r="92" spans="2:42" ht="12.75">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -5510,7 +5515,7 @@
       <c r="AO92" s="11"/>
       <c r="AP92" s="11"/>
     </row>
-    <row r="93" spans="2:42" ht="13.5">
+    <row r="93" spans="2:42" ht="12.75">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -5553,7 +5558,7 @@
       <c r="AO93" s="11"/>
       <c r="AP93" s="11"/>
     </row>
-    <row r="94" spans="2:42" ht="13.5">
+    <row r="94" spans="2:42" ht="12.75">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -5596,7 +5601,7 @@
       <c r="AO94" s="11"/>
       <c r="AP94" s="11"/>
     </row>
-    <row r="95" spans="2:42" ht="13.5">
+    <row r="95" spans="2:42" ht="12.75">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -5639,7 +5644,7 @@
       <c r="AO95" s="11"/>
       <c r="AP95" s="11"/>
     </row>
-    <row r="96" spans="2:42" ht="13.5">
+    <row r="96" spans="2:42" ht="12.75">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -5682,7 +5687,7 @@
       <c r="AO96" s="11"/>
       <c r="AP96" s="11"/>
     </row>
-    <row r="97" spans="2:42" ht="13.5">
+    <row r="97" spans="2:42" ht="12.75">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -5725,7 +5730,7 @@
       <c r="AO97" s="11"/>
       <c r="AP97" s="11"/>
     </row>
-    <row r="98" spans="2:42" ht="13.5">
+    <row r="98" spans="2:42" ht="12.75">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -5768,7 +5773,7 @@
       <c r="AO98" s="11"/>
       <c r="AP98" s="11"/>
     </row>
-    <row r="99" spans="2:42" ht="13.5">
+    <row r="99" spans="2:42" ht="12.75">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -5811,7 +5816,7 @@
       <c r="AO99" s="11"/>
       <c r="AP99" s="11"/>
     </row>
-    <row r="100" spans="2:42" ht="13.5">
+    <row r="100" spans="2:42" ht="12.75">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -5854,7 +5859,7 @@
       <c r="AO100" s="11"/>
       <c r="AP100" s="11"/>
     </row>
-    <row r="101" spans="2:42" ht="13.5">
+    <row r="101" spans="2:42" ht="12.75">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -5897,7 +5902,7 @@
       <c r="AO101" s="11"/>
       <c r="AP101" s="11"/>
     </row>
-    <row r="102" spans="2:42" ht="13.5">
+    <row r="102" spans="2:42" ht="12.75">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -5940,7 +5945,7 @@
       <c r="AO102" s="11"/>
       <c r="AP102" s="11"/>
     </row>
-    <row r="103" spans="2:42" ht="13.5">
+    <row r="103" spans="2:42" ht="12.75">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -5983,7 +5988,7 @@
       <c r="AO103" s="11"/>
       <c r="AP103" s="11"/>
     </row>
-    <row r="104" spans="2:42" ht="13.5">
+    <row r="104" spans="2:42" ht="12.75">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -6026,7 +6031,7 @@
       <c r="AO104" s="11"/>
       <c r="AP104" s="11"/>
     </row>
-    <row r="105" spans="2:42" ht="13.5">
+    <row r="105" spans="2:42" ht="12.75">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -6069,7 +6074,7 @@
       <c r="AO105" s="11"/>
       <c r="AP105" s="11"/>
     </row>
-    <row r="106" spans="2:42" ht="13.5">
+    <row r="106" spans="2:42" ht="12.75">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -6112,7 +6117,7 @@
       <c r="AO106" s="11"/>
       <c r="AP106" s="11"/>
     </row>
-    <row r="107" spans="2:42" ht="13.5">
+    <row r="107" spans="2:42" ht="12.75">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -6155,7 +6160,7 @@
       <c r="AO107" s="11"/>
       <c r="AP107" s="11"/>
     </row>
-    <row r="108" spans="2:42" ht="13.5">
+    <row r="108" spans="2:42" ht="12.75">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -6198,7 +6203,7 @@
       <c r="AO108" s="11"/>
       <c r="AP108" s="11"/>
     </row>
-    <row r="109" spans="2:42" ht="13.5">
+    <row r="109" spans="2:42" ht="12.75">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -6241,7 +6246,7 @@
       <c r="AO109" s="11"/>
       <c r="AP109" s="11"/>
     </row>
-    <row r="110" spans="2:42" ht="13.5">
+    <row r="110" spans="2:42" ht="12.75">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -6284,7 +6289,7 @@
       <c r="AO110" s="11"/>
       <c r="AP110" s="11"/>
     </row>
-    <row r="111" spans="2:42" ht="13.5">
+    <row r="111" spans="2:42" ht="12.75">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -6327,7 +6332,7 @@
       <c r="AO111" s="11"/>
       <c r="AP111" s="11"/>
     </row>
-    <row r="112" spans="2:42" ht="13.5">
+    <row r="112" spans="2:42" ht="12.75">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -6370,7 +6375,7 @@
       <c r="AO112" s="11"/>
       <c r="AP112" s="11"/>
     </row>
-    <row r="113" spans="2:42" ht="13.5">
+    <row r="113" spans="2:42" ht="12.75">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -6413,7 +6418,7 @@
       <c r="AO113" s="11"/>
       <c r="AP113" s="11"/>
     </row>
-    <row r="114" spans="2:42" ht="13.5">
+    <row r="114" spans="2:42" ht="12.75">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -6456,7 +6461,7 @@
       <c r="AO114" s="11"/>
       <c r="AP114" s="11"/>
     </row>
-    <row r="115" spans="2:42" ht="13.5">
+    <row r="115" spans="2:42" ht="12.75">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -6499,7 +6504,7 @@
       <c r="AO115" s="11"/>
       <c r="AP115" s="11"/>
     </row>
-    <row r="116" spans="2:42" ht="13.5">
+    <row r="116" spans="2:42" ht="12.75">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -6542,7 +6547,7 @@
       <c r="AO116" s="11"/>
       <c r="AP116" s="11"/>
     </row>
-    <row r="117" spans="2:42" ht="13.5">
+    <row r="117" spans="2:42" ht="12.75">
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -6585,7 +6590,7 @@
       <c r="AO117" s="11"/>
       <c r="AP117" s="11"/>
     </row>
-    <row r="118" spans="2:42" ht="13.5">
+    <row r="118" spans="2:42" ht="12.75">
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -6628,7 +6633,7 @@
       <c r="AO118" s="11"/>
       <c r="AP118" s="11"/>
     </row>
-    <row r="119" spans="2:42" ht="13.5">
+    <row r="119" spans="2:42" ht="12.75">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -6671,7 +6676,7 @@
       <c r="AO119" s="11"/>
       <c r="AP119" s="11"/>
     </row>
-    <row r="120" spans="2:42" ht="13.5">
+    <row r="120" spans="2:42" ht="12.75">
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -6714,7 +6719,7 @@
       <c r="AO120" s="11"/>
       <c r="AP120" s="11"/>
     </row>
-    <row r="121" spans="2:42" ht="13.5">
+    <row r="121" spans="2:42" ht="12.75">
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -6757,7 +6762,7 @@
       <c r="AO121" s="11"/>
       <c r="AP121" s="11"/>
     </row>
-    <row r="122" spans="2:42" ht="13.5">
+    <row r="122" spans="2:42" ht="12.75">
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -6800,7 +6805,7 @@
       <c r="AO122" s="11"/>
       <c r="AP122" s="11"/>
     </row>
-    <row r="123" spans="2:42" ht="13.5">
+    <row r="123" spans="2:42" ht="12.75">
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -6843,7 +6848,7 @@
       <c r="AO123" s="11"/>
       <c r="AP123" s="11"/>
     </row>
-    <row r="124" spans="2:42" ht="13.5">
+    <row r="124" spans="2:42" ht="12.75">
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -6886,7 +6891,7 @@
       <c r="AO124" s="11"/>
       <c r="AP124" s="11"/>
     </row>
-    <row r="125" spans="2:42" ht="13.5">
+    <row r="125" spans="2:42" ht="12.75">
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -6929,7 +6934,7 @@
       <c r="AO125" s="11"/>
       <c r="AP125" s="11"/>
     </row>
-    <row r="126" spans="2:42" ht="13.5">
+    <row r="126" spans="2:42" ht="12.75">
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -6972,7 +6977,7 @@
       <c r="AO126" s="11"/>
       <c r="AP126" s="11"/>
     </row>
-    <row r="127" spans="2:42" ht="13.5">
+    <row r="127" spans="2:42" ht="12.75">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -7015,7 +7020,7 @@
       <c r="AO127" s="11"/>
       <c r="AP127" s="11"/>
     </row>
-    <row r="128" spans="2:42" ht="13.5">
+    <row r="128" spans="2:42" ht="12.75">
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -7058,7 +7063,7 @@
       <c r="AO128" s="11"/>
       <c r="AP128" s="11"/>
     </row>
-    <row r="129" spans="2:42" ht="13.5">
+    <row r="129" spans="2:42" ht="12.75">
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -7101,7 +7106,7 @@
       <c r="AO129" s="11"/>
       <c r="AP129" s="11"/>
     </row>
-    <row r="130" spans="2:42" ht="13.5">
+    <row r="130" spans="2:42" ht="12.75">
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -7144,7 +7149,7 @@
       <c r="AO130" s="11"/>
       <c r="AP130" s="11"/>
     </row>
-    <row r="131" spans="2:42" ht="13.5">
+    <row r="131" spans="2:42" ht="12.75">
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -7187,7 +7192,7 @@
       <c r="AO131" s="11"/>
       <c r="AP131" s="11"/>
     </row>
-    <row r="132" spans="2:42" ht="13.5">
+    <row r="132" spans="2:42" ht="12.75">
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -7230,7 +7235,7 @@
       <c r="AO132" s="11"/>
       <c r="AP132" s="11"/>
     </row>
-    <row r="133" spans="2:42" ht="13.5">
+    <row r="133" spans="2:42" ht="12.75">
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -7273,7 +7278,7 @@
       <c r="AO133" s="11"/>
       <c r="AP133" s="11"/>
     </row>
-    <row r="134" spans="2:42" ht="13.5">
+    <row r="134" spans="2:42" ht="12.75">
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -7316,7 +7321,7 @@
       <c r="AO134" s="11"/>
       <c r="AP134" s="11"/>
     </row>
-    <row r="135" spans="2:42" ht="13.5">
+    <row r="135" spans="2:42" ht="12.75">
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -7359,7 +7364,7 @@
       <c r="AO135" s="11"/>
       <c r="AP135" s="11"/>
     </row>
-    <row r="136" spans="2:42" ht="13.5">
+    <row r="136" spans="2:42" ht="12.75">
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -7402,7 +7407,7 @@
       <c r="AO136" s="11"/>
       <c r="AP136" s="11"/>
     </row>
-    <row r="137" spans="2:42" ht="13.5">
+    <row r="137" spans="2:42" ht="12.75">
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -7445,7 +7450,7 @@
       <c r="AO137" s="11"/>
       <c r="AP137" s="11"/>
     </row>
-    <row r="138" spans="2:42" ht="13.5">
+    <row r="138" spans="2:42" ht="12.75">
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -7488,7 +7493,7 @@
       <c r="AO138" s="11"/>
       <c r="AP138" s="11"/>
     </row>
-    <row r="139" spans="2:42" ht="13.5">
+    <row r="139" spans="2:42" ht="12.75">
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -7531,7 +7536,7 @@
       <c r="AO139" s="11"/>
       <c r="AP139" s="11"/>
     </row>
-    <row r="140" spans="2:42" ht="13.5">
+    <row r="140" spans="2:42" ht="12.75">
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -7574,7 +7579,7 @@
       <c r="AO140" s="11"/>
       <c r="AP140" s="11"/>
     </row>
-    <row r="141" spans="2:42" ht="13.5">
+    <row r="141" spans="2:42" ht="12.75">
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -7617,7 +7622,7 @@
       <c r="AO141" s="11"/>
       <c r="AP141" s="11"/>
     </row>
-    <row r="142" spans="2:42" ht="13.5">
+    <row r="142" spans="2:42" ht="12.75">
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -7660,7 +7665,7 @@
       <c r="AO142" s="11"/>
       <c r="AP142" s="11"/>
     </row>
-    <row r="143" spans="2:42" ht="13.5">
+    <row r="143" spans="2:42" ht="12.75">
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -7703,7 +7708,7 @@
       <c r="AO143" s="11"/>
       <c r="AP143" s="11"/>
     </row>
-    <row r="144" spans="2:42" ht="13.5">
+    <row r="144" spans="2:42" ht="12.75">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -7746,7 +7751,7 @@
       <c r="AO144" s="11"/>
       <c r="AP144" s="11"/>
     </row>
-    <row r="145" spans="2:42" ht="13.5">
+    <row r="145" spans="2:42" ht="12.75">
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -7789,7 +7794,7 @@
       <c r="AO145" s="11"/>
       <c r="AP145" s="11"/>
     </row>
-    <row r="146" spans="2:42" ht="13.5">
+    <row r="146" spans="2:42" ht="12.75">
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -7832,7 +7837,7 @@
       <c r="AO146" s="11"/>
       <c r="AP146" s="11"/>
     </row>
-    <row r="147" spans="2:42" ht="13.5">
+    <row r="147" spans="2:42" ht="12.75">
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -7875,7 +7880,7 @@
       <c r="AO147" s="11"/>
       <c r="AP147" s="11"/>
     </row>
-    <row r="148" spans="2:42" ht="13.5">
+    <row r="148" spans="2:42" ht="12.75">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -7918,7 +7923,7 @@
       <c r="AO148" s="11"/>
       <c r="AP148" s="11"/>
     </row>
-    <row r="149" spans="2:42" ht="13.5">
+    <row r="149" spans="2:42" ht="12.75">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -7961,7 +7966,7 @@
       <c r="AO149" s="11"/>
       <c r="AP149" s="11"/>
     </row>
-    <row r="150" spans="2:42" ht="13.5">
+    <row r="150" spans="2:42" ht="12.75">
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -8004,7 +8009,7 @@
       <c r="AO150" s="11"/>
       <c r="AP150" s="11"/>
     </row>
-    <row r="151" spans="2:42" ht="13.5">
+    <row r="151" spans="2:42" ht="12.75">
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -8047,7 +8052,7 @@
       <c r="AO151" s="11"/>
       <c r="AP151" s="11"/>
     </row>
-    <row r="152" spans="2:42" ht="13.5">
+    <row r="152" spans="2:42" ht="12.75">
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -8090,7 +8095,7 @@
       <c r="AO152" s="11"/>
       <c r="AP152" s="11"/>
     </row>
-    <row r="153" spans="2:42" ht="13.5">
+    <row r="153" spans="2:42" ht="12.75">
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -8133,7 +8138,7 @@
       <c r="AO153" s="11"/>
       <c r="AP153" s="11"/>
     </row>
-    <row r="154" spans="2:42" ht="13.5">
+    <row r="154" spans="2:42" ht="12.75">
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -8176,7 +8181,7 @@
       <c r="AO154" s="11"/>
       <c r="AP154" s="11"/>
     </row>
-    <row r="155" spans="2:42" ht="13.5">
+    <row r="155" spans="2:42" ht="12.75">
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -8219,7 +8224,7 @@
       <c r="AO155" s="11"/>
       <c r="AP155" s="11"/>
     </row>
-    <row r="156" spans="2:42" ht="13.5">
+    <row r="156" spans="2:42" ht="12.75">
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -8262,7 +8267,7 @@
       <c r="AO156" s="11"/>
       <c r="AP156" s="11"/>
     </row>
-    <row r="157" spans="2:42" ht="13.5">
+    <row r="157" spans="2:42" ht="12.75">
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -8305,7 +8310,7 @@
       <c r="AO157" s="11"/>
       <c r="AP157" s="11"/>
     </row>
-    <row r="158" spans="2:42" ht="13.5">
+    <row r="158" spans="2:42" ht="12.75">
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -8348,7 +8353,7 @@
       <c r="AO158" s="11"/>
       <c r="AP158" s="11"/>
     </row>
-    <row r="159" spans="2:42" ht="13.5">
+    <row r="159" spans="2:42" ht="12.75">
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -8391,7 +8396,7 @@
       <c r="AO159" s="11"/>
       <c r="AP159" s="11"/>
     </row>
-    <row r="160" spans="2:42" ht="13.5">
+    <row r="160" spans="2:42" ht="12.75">
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -8434,7 +8439,7 @@
       <c r="AO160" s="11"/>
       <c r="AP160" s="11"/>
     </row>
-    <row r="161" spans="2:42" ht="13.5">
+    <row r="161" spans="2:42" ht="12.75">
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -8477,7 +8482,7 @@
       <c r="AO161" s="11"/>
       <c r="AP161" s="11"/>
     </row>
-    <row r="162" spans="2:42" ht="13.5">
+    <row r="162" spans="2:42" ht="12.75">
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -8520,7 +8525,7 @@
       <c r="AO162" s="11"/>
       <c r="AP162" s="11"/>
     </row>
-    <row r="163" spans="2:42" ht="13.5">
+    <row r="163" spans="2:42" ht="12.75">
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -8563,7 +8568,7 @@
       <c r="AO163" s="11"/>
       <c r="AP163" s="11"/>
     </row>
-    <row r="164" spans="2:42" ht="13.5">
+    <row r="164" spans="2:42" ht="12.75">
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -8606,7 +8611,7 @@
       <c r="AO164" s="11"/>
       <c r="AP164" s="11"/>
     </row>
-    <row r="165" spans="2:42" ht="13.5">
+    <row r="165" spans="2:42" ht="12.75">
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -8649,7 +8654,7 @@
       <c r="AO165" s="11"/>
       <c r="AP165" s="11"/>
     </row>
-    <row r="166" spans="2:42" ht="13.5">
+    <row r="166" spans="2:42" ht="12.75">
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -8692,7 +8697,7 @@
       <c r="AO166" s="11"/>
       <c r="AP166" s="11"/>
     </row>
-    <row r="167" spans="2:42" ht="13.5">
+    <row r="167" spans="2:42" ht="12.75">
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -8735,7 +8740,7 @@
       <c r="AO167" s="11"/>
       <c r="AP167" s="11"/>
     </row>
-    <row r="168" spans="2:42" ht="13.5">
+    <row r="168" spans="2:42" ht="12.75">
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -8778,7 +8783,7 @@
       <c r="AO168" s="11"/>
       <c r="AP168" s="11"/>
     </row>
-    <row r="169" spans="2:42" ht="13.5">
+    <row r="169" spans="2:42" ht="12.75">
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -8821,7 +8826,7 @@
       <c r="AO169" s="11"/>
       <c r="AP169" s="11"/>
     </row>
-    <row r="170" spans="2:42" ht="13.5">
+    <row r="170" spans="2:42" ht="12.75">
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -8864,7 +8869,7 @@
       <c r="AO170" s="11"/>
       <c r="AP170" s="11"/>
     </row>
-    <row r="171" spans="2:42" ht="13.5">
+    <row r="171" spans="2:42" ht="12.75">
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -8907,7 +8912,7 @@
       <c r="AO171" s="11"/>
       <c r="AP171" s="11"/>
     </row>
-    <row r="172" spans="2:42" ht="13.5">
+    <row r="172" spans="2:42" ht="12.75">
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -8950,7 +8955,7 @@
       <c r="AO172" s="11"/>
       <c r="AP172" s="11"/>
     </row>
-    <row r="173" spans="2:42" ht="13.5">
+    <row r="173" spans="2:42" ht="12.75">
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -8993,7 +8998,7 @@
       <c r="AO173" s="11"/>
       <c r="AP173" s="11"/>
     </row>
-    <row r="174" spans="2:42" ht="13.5">
+    <row r="174" spans="2:42" ht="12.75">
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -9036,7 +9041,7 @@
       <c r="AO174" s="11"/>
       <c r="AP174" s="11"/>
     </row>
-    <row r="175" spans="2:42" ht="13.5">
+    <row r="175" spans="2:42" ht="12.75">
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -9079,7 +9084,7 @@
       <c r="AO175" s="11"/>
       <c r="AP175" s="11"/>
     </row>
-    <row r="176" spans="2:42" ht="13.5">
+    <row r="176" spans="2:42" ht="12.75">
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -9122,7 +9127,7 @@
       <c r="AO176" s="11"/>
       <c r="AP176" s="11"/>
     </row>
-    <row r="177" spans="2:42" ht="13.5">
+    <row r="177" spans="2:42" ht="12.75">
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -9165,7 +9170,7 @@
       <c r="AO177" s="11"/>
       <c r="AP177" s="11"/>
     </row>
-    <row r="178" spans="2:42" ht="13.5">
+    <row r="178" spans="2:42" ht="12.75">
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -9208,7 +9213,7 @@
       <c r="AO178" s="11"/>
       <c r="AP178" s="11"/>
     </row>
-    <row r="179" spans="2:42" ht="13.5">
+    <row r="179" spans="2:42" ht="12.75">
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -9251,7 +9256,7 @@
       <c r="AO179" s="11"/>
       <c r="AP179" s="11"/>
     </row>
-    <row r="180" spans="2:42" ht="13.5">
+    <row r="180" spans="2:42" ht="12.75">
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -9294,7 +9299,7 @@
       <c r="AO180" s="11"/>
       <c r="AP180" s="11"/>
     </row>
-    <row r="181" spans="2:42" ht="13.5">
+    <row r="181" spans="2:42" ht="12.75">
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -9337,7 +9342,7 @@
       <c r="AO181" s="11"/>
       <c r="AP181" s="11"/>
     </row>
-    <row r="182" spans="2:42" ht="13.5">
+    <row r="182" spans="2:42" ht="12.75">
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -9380,7 +9385,7 @@
       <c r="AO182" s="11"/>
       <c r="AP182" s="11"/>
     </row>
-    <row r="183" spans="2:42" ht="13.5">
+    <row r="183" spans="2:42" ht="12.75">
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -9423,7 +9428,7 @@
       <c r="AO183" s="11"/>
       <c r="AP183" s="11"/>
     </row>
-    <row r="184" spans="2:42" ht="13.5">
+    <row r="184" spans="2:42" ht="12.75">
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -9466,7 +9471,7 @@
       <c r="AO184" s="11"/>
       <c r="AP184" s="11"/>
     </row>
-    <row r="185" spans="2:42" ht="13.5">
+    <row r="185" spans="2:42" ht="12.75">
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -9509,7 +9514,7 @@
       <c r="AO185" s="11"/>
       <c r="AP185" s="11"/>
     </row>
-    <row r="186" spans="2:42" ht="13.5">
+    <row r="186" spans="2:42" ht="12.75">
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -9552,7 +9557,7 @@
       <c r="AO186" s="11"/>
       <c r="AP186" s="11"/>
     </row>
-    <row r="187" spans="2:42" ht="13.5">
+    <row r="187" spans="2:42" ht="12.75">
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -9595,7 +9600,7 @@
       <c r="AO187" s="11"/>
       <c r="AP187" s="11"/>
     </row>
-    <row r="188" spans="2:42" ht="13.5">
+    <row r="188" spans="2:42" ht="12.75">
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -9638,7 +9643,7 @@
       <c r="AO188" s="11"/>
       <c r="AP188" s="11"/>
     </row>
-    <row r="189" spans="2:42" ht="13.5">
+    <row r="189" spans="2:42" ht="12.75">
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -9681,7 +9686,7 @@
       <c r="AO189" s="11"/>
       <c r="AP189" s="11"/>
     </row>
-    <row r="190" spans="2:42" ht="13.5">
+    <row r="190" spans="2:42" ht="12.75">
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -9724,7 +9729,7 @@
       <c r="AO190" s="11"/>
       <c r="AP190" s="11"/>
     </row>
-    <row r="191" spans="2:42" ht="13.5">
+    <row r="191" spans="2:42" ht="12.75">
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -9767,7 +9772,7 @@
       <c r="AO191" s="11"/>
       <c r="AP191" s="11"/>
     </row>
-    <row r="192" spans="2:42" ht="13.5">
+    <row r="192" spans="2:42" ht="12.75">
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -9810,7 +9815,7 @@
       <c r="AO192" s="11"/>
       <c r="AP192" s="11"/>
     </row>
-    <row r="193" spans="2:42" ht="13.5">
+    <row r="193" spans="2:42" ht="12.75">
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -9853,7 +9858,7 @@
       <c r="AO193" s="11"/>
       <c r="AP193" s="11"/>
     </row>
-    <row r="194" spans="2:42" ht="13.5">
+    <row r="194" spans="2:42" ht="12.75">
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -9896,7 +9901,7 @@
       <c r="AO194" s="11"/>
       <c r="AP194" s="11"/>
     </row>
-    <row r="195" spans="2:42" ht="13.5">
+    <row r="195" spans="2:42" ht="12.75">
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -9939,7 +9944,7 @@
       <c r="AO195" s="11"/>
       <c r="AP195" s="11"/>
     </row>
-    <row r="196" spans="2:42" ht="13.5">
+    <row r="196" spans="2:42" ht="12.75">
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -9982,7 +9987,7 @@
       <c r="AO196" s="11"/>
       <c r="AP196" s="11"/>
     </row>
-    <row r="197" spans="2:42" ht="13.5">
+    <row r="197" spans="2:42" ht="12.75">
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -10025,7 +10030,7 @@
       <c r="AO197" s="11"/>
       <c r="AP197" s="11"/>
     </row>
-    <row r="198" spans="2:42" ht="13.5">
+    <row r="198" spans="2:42" ht="12.75">
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -10068,7 +10073,7 @@
       <c r="AO198" s="11"/>
       <c r="AP198" s="11"/>
     </row>
-    <row r="199" spans="2:42" ht="13.5">
+    <row r="199" spans="2:42" ht="12.75">
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -10111,7 +10116,7 @@
       <c r="AO199" s="11"/>
       <c r="AP199" s="11"/>
     </row>
-    <row r="200" spans="2:42" ht="13.5">
+    <row r="200" spans="2:42" ht="12.75">
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -10154,7 +10159,7 @@
       <c r="AO200" s="11"/>
       <c r="AP200" s="11"/>
     </row>
-    <row r="201" spans="2:42" ht="13.5">
+    <row r="201" spans="2:42" ht="12.75">
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -10197,7 +10202,7 @@
       <c r="AO201" s="11"/>
       <c r="AP201" s="11"/>
     </row>
-    <row r="202" spans="2:42" ht="13.5">
+    <row r="202" spans="2:42" ht="12.75">
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -10240,7 +10245,7 @@
       <c r="AO202" s="11"/>
       <c r="AP202" s="11"/>
     </row>
-    <row r="203" spans="2:42" ht="13.5">
+    <row r="203" spans="2:42" ht="12.75">
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -10283,7 +10288,7 @@
       <c r="AO203" s="11"/>
       <c r="AP203" s="11"/>
     </row>
-    <row r="204" spans="2:42" ht="13.5">
+    <row r="204" spans="2:42" ht="12.75">
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -10326,7 +10331,7 @@
       <c r="AO204" s="11"/>
       <c r="AP204" s="11"/>
     </row>
-    <row r="205" spans="2:42" ht="13.5">
+    <row r="205" spans="2:42" ht="12.75">
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
@@ -10369,7 +10374,7 @@
       <c r="AO205" s="11"/>
       <c r="AP205" s="11"/>
     </row>
-    <row r="206" spans="2:42" ht="13.5">
+    <row r="206" spans="2:42" ht="12.75">
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -10412,7 +10417,7 @@
       <c r="AO206" s="11"/>
       <c r="AP206" s="11"/>
     </row>
-    <row r="207" spans="2:42" ht="13.5">
+    <row r="207" spans="2:42" ht="12.75">
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
@@ -10455,7 +10460,7 @@
       <c r="AO207" s="11"/>
       <c r="AP207" s="11"/>
     </row>
-    <row r="208" spans="2:42" ht="13.5">
+    <row r="208" spans="2:42" ht="12.75">
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -10498,7 +10503,7 @@
       <c r="AO208" s="11"/>
       <c r="AP208" s="11"/>
     </row>
-    <row r="209" spans="2:42" ht="13.5">
+    <row r="209" spans="2:42" ht="12.75">
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -10541,7 +10546,7 @@
       <c r="AO209" s="11"/>
       <c r="AP209" s="11"/>
     </row>
-    <row r="210" spans="2:42" ht="13.5">
+    <row r="210" spans="2:42" ht="12.75">
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
@@ -10584,7 +10589,7 @@
       <c r="AO210" s="11"/>
       <c r="AP210" s="11"/>
     </row>
-    <row r="211" spans="2:42" ht="13.5">
+    <row r="211" spans="2:42" ht="12.75">
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
@@ -10627,7 +10632,7 @@
       <c r="AO211" s="11"/>
       <c r="AP211" s="11"/>
     </row>
-    <row r="212" spans="2:42" ht="13.5">
+    <row r="212" spans="2:42" ht="12.75">
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -10670,7 +10675,7 @@
       <c r="AO212" s="11"/>
       <c r="AP212" s="11"/>
     </row>
-    <row r="213" spans="2:42" ht="13.5">
+    <row r="213" spans="2:42" ht="12.75">
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -10713,7 +10718,7 @@
       <c r="AO213" s="11"/>
       <c r="AP213" s="11"/>
     </row>
-    <row r="214" spans="2:42" ht="13.5">
+    <row r="214" spans="2:42" ht="12.75">
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -10756,7 +10761,7 @@
       <c r="AO214" s="11"/>
       <c r="AP214" s="11"/>
     </row>
-    <row r="215" spans="2:42" ht="13.5">
+    <row r="215" spans="2:42" ht="12.75">
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
@@ -10799,7 +10804,7 @@
       <c r="AO215" s="11"/>
       <c r="AP215" s="11"/>
     </row>
-    <row r="216" spans="2:42" ht="13.5">
+    <row r="216" spans="2:42" ht="12.75">
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -10842,7 +10847,7 @@
       <c r="AO216" s="11"/>
       <c r="AP216" s="11"/>
     </row>
-    <row r="217" spans="2:42" ht="13.5">
+    <row r="217" spans="2:42" ht="12.75">
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
@@ -10885,7 +10890,7 @@
       <c r="AO217" s="11"/>
       <c r="AP217" s="11"/>
     </row>
-    <row r="218" spans="2:42" ht="13.5">
+    <row r="218" spans="2:42" ht="12.75">
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -10928,7 +10933,7 @@
       <c r="AO218" s="11"/>
       <c r="AP218" s="11"/>
     </row>
-    <row r="219" spans="2:42" ht="13.5">
+    <row r="219" spans="2:42" ht="12.75">
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -10971,7 +10976,7 @@
       <c r="AO219" s="11"/>
       <c r="AP219" s="11"/>
     </row>
-    <row r="220" spans="2:42" ht="13.5">
+    <row r="220" spans="2:42" ht="12.75">
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -11014,7 +11019,7 @@
       <c r="AO220" s="11"/>
       <c r="AP220" s="11"/>
     </row>
-    <row r="221" spans="2:42" ht="13.5">
+    <row r="221" spans="2:42" ht="12.75">
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -11057,7 +11062,7 @@
       <c r="AO221" s="11"/>
       <c r="AP221" s="11"/>
     </row>
-    <row r="222" spans="2:42" ht="13.5">
+    <row r="222" spans="2:42" ht="12.75">
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
@@ -11100,7 +11105,7 @@
       <c r="AO222" s="11"/>
       <c r="AP222" s="11"/>
     </row>
-    <row r="223" spans="2:42" ht="13.5">
+    <row r="223" spans="2:42" ht="12.75">
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -11143,7 +11148,7 @@
       <c r="AO223" s="11"/>
       <c r="AP223" s="11"/>
     </row>
-    <row r="224" spans="2:42" ht="13.5">
+    <row r="224" spans="2:42" ht="12.75">
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
@@ -11186,7 +11191,7 @@
       <c r="AO224" s="11"/>
       <c r="AP224" s="11"/>
     </row>
-    <row r="225" spans="2:42" ht="13.5">
+    <row r="225" spans="2:42" ht="12.75">
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
@@ -11229,7 +11234,7 @@
       <c r="AO225" s="11"/>
       <c r="AP225" s="11"/>
     </row>
-    <row r="226" spans="2:42" ht="13.5">
+    <row r="226" spans="2:42" ht="12.75">
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
@@ -11272,7 +11277,7 @@
       <c r="AO226" s="11"/>
       <c r="AP226" s="11"/>
     </row>
-    <row r="227" spans="2:42" ht="13.5">
+    <row r="227" spans="2:42" ht="12.75">
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
@@ -11315,7 +11320,7 @@
       <c r="AO227" s="11"/>
       <c r="AP227" s="11"/>
     </row>
-    <row r="228" spans="2:42" ht="13.5">
+    <row r="228" spans="2:42" ht="12.75">
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
@@ -11358,7 +11363,7 @@
       <c r="AO228" s="11"/>
       <c r="AP228" s="11"/>
     </row>
-    <row r="229" spans="2:42" ht="13.5">
+    <row r="229" spans="2:42" ht="12.75">
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -11401,7 +11406,7 @@
       <c r="AO229" s="11"/>
       <c r="AP229" s="11"/>
     </row>
-    <row r="230" spans="2:42" ht="13.5">
+    <row r="230" spans="2:42" ht="12.75">
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -11444,7 +11449,7 @@
       <c r="AO230" s="11"/>
       <c r="AP230" s="11"/>
     </row>
-    <row r="231" spans="2:42" ht="13.5">
+    <row r="231" spans="2:42" ht="12.75">
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -11487,7 +11492,7 @@
       <c r="AO231" s="11"/>
       <c r="AP231" s="11"/>
     </row>
-    <row r="232" spans="2:42" ht="13.5">
+    <row r="232" spans="2:42" ht="12.75">
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
@@ -11530,7 +11535,7 @@
       <c r="AO232" s="11"/>
       <c r="AP232" s="11"/>
     </row>
-    <row r="233" spans="2:42" ht="13.5">
+    <row r="233" spans="2:42" ht="12.75">
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
@@ -11573,7 +11578,7 @@
       <c r="AO233" s="11"/>
       <c r="AP233" s="11"/>
     </row>
-    <row r="234" spans="2:42" ht="13.5">
+    <row r="234" spans="2:42" ht="12.75">
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
@@ -11616,7 +11621,7 @@
       <c r="AO234" s="11"/>
       <c r="AP234" s="11"/>
     </row>
-    <row r="235" spans="2:42" ht="13.5">
+    <row r="235" spans="2:42" ht="12.75">
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
@@ -11659,7 +11664,7 @@
       <c r="AO235" s="11"/>
       <c r="AP235" s="11"/>
     </row>
-    <row r="236" spans="2:42" ht="13.5">
+    <row r="236" spans="2:42" ht="12.75">
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -11704,6 +11709,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:Q2"/>
@@ -11718,9 +11726,6 @@
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.39370078740157499" footer="0.39370078740157499"/>
@@ -11737,132 +11742,132 @@
   <dimension ref="A1:AJ255"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="107" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AX50" sqref="AX50"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="9.4"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="2.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="2.625" style="3"/>
-    <col min="12" max="13" width="2.75" style="3" customWidth="1"/>
-    <col min="14" max="18" width="3.375" style="3" customWidth="1"/>
-    <col min="19" max="36" width="2.75" style="3" customWidth="1"/>
-    <col min="37" max="16384" width="2.625" style="3"/>
+    <col min="1" max="1" width="2.3984375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="2.59765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2.59765625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="2.59765625" style="3"/>
+    <col min="12" max="13" width="2.73046875" style="3" customWidth="1"/>
+    <col min="14" max="18" width="3.3984375" style="3" customWidth="1"/>
+    <col min="19" max="36" width="2.73046875" style="3" customWidth="1"/>
+    <col min="37" max="16384" width="2.59765625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="22" t="str">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="46" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="22" t="str">
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="25" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="25" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35"/>
-    </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="37" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="24"/>
+    </row>
+    <row r="2" spans="1:36" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="str">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26" t="str">
         <f>初期画面表示!M2</f>
         <v>勤怠システム</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="37" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38" t="str">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26" t="str">
         <f>初期画面表示!V2</f>
         <v>ログイン</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43">
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="31">
         <v>45040</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
-    </row>
-    <row r="3" spans="1:36" ht="13.5">
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="33"/>
+    </row>
+    <row r="3" spans="1:36" ht="13.15" thickTop="1">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -11901,40 +11906,45 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" ht="26.1" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="77"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
       <c r="T4" s="6">
+        <f>S4+1</f>
         <v>2</v>
       </c>
       <c r="U4" s="6">
+        <f t="shared" ref="U4:X4" si="0">T4+1</f>
         <v>3</v>
       </c>
       <c r="V4" s="6">
+        <f>U4+1</f>
         <v>4</v>
       </c>
       <c r="W4" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X4" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Y4" s="6"/>
@@ -11951,28 +11961,28 @@
       <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="64"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="52"/>
       <c r="S5" s="7" t="s">
         <v>18</v>
       </c>
@@ -11995,24 +12005,24 @@
       <c r="AJ5" s="7"/>
     </row>
     <row r="6" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="64"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -12033,26 +12043,26 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="64"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="52"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -12073,26 +12083,26 @@
       <c r="AJ7" s="7"/>
     </row>
     <row r="8" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="72" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="74"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
         <v>18</v>
@@ -12115,26 +12125,26 @@
       <c r="AJ8" s="7"/>
     </row>
     <row r="9" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="74"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7" t="s">
@@ -12163,24 +12173,24 @@
       <c r="AJ9" s="7"/>
     </row>
     <row r="10" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="52"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -12201,26 +12211,26 @@
       <c r="AJ10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="64"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="52"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -12241,26 +12251,26 @@
       <c r="AJ11" s="7"/>
     </row>
     <row r="12" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="74"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7" t="s">
@@ -12283,26 +12293,26 @@
       <c r="AJ12" s="7"/>
     </row>
     <row r="13" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="74"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -12329,24 +12339,24 @@
       <c r="AJ13" s="7"/>
     </row>
     <row r="14" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="52"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -12367,26 +12377,26 @@
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="64"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="52"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -12407,26 +12417,26 @@
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="72" t="s">
+      <c r="A16" s="66"/>
+      <c r="B16" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="74"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -12449,26 +12459,26 @@
       <c r="AJ16" s="7"/>
     </row>
     <row r="17" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="74"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="55"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -12491,24 +12501,24 @@
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="8"/>
       <c r="S18" s="7"/>
@@ -12533,24 +12543,24 @@
       <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="52"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -12571,26 +12581,26 @@
       <c r="AJ19" s="7"/>
     </row>
     <row r="20" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="64"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="52"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7" t="s">
         <v>18</v>
@@ -12621,24 +12631,24 @@
       <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="52"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -12659,24 +12669,24 @@
       <c r="AJ21" s="7"/>
     </row>
     <row r="22" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="64"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="52"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -12697,24 +12707,24 @@
       <c r="AJ22" s="7"/>
     </row>
     <row r="23" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="52"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -12735,24 +12745,24 @@
       <c r="AJ23" s="7"/>
     </row>
     <row r="24" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="64"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="52"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -12773,24 +12783,24 @@
       <c r="AJ24" s="7"/>
     </row>
     <row r="25" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="64"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="52"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -12811,28 +12821,28 @@
       <c r="AJ25" s="7"/>
     </row>
     <row r="26" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="64"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="52"/>
       <c r="S26" s="7" t="s">
         <v>18</v>
       </c>
@@ -12855,26 +12865,26 @@
       <c r="AJ26" s="7"/>
     </row>
     <row r="27" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="64"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="52"/>
       <c r="S27" s="7" t="s">
         <v>18</v>
       </c>
@@ -12897,26 +12907,26 @@
       <c r="AJ27" s="7"/>
     </row>
     <row r="28" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="64"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="52"/>
       <c r="S28" s="7" t="s">
         <v>18</v>
       </c>
@@ -12939,24 +12949,24 @@
       <c r="AJ28" s="7"/>
     </row>
     <row r="29" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="64"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="52"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -12977,26 +12987,26 @@
       <c r="AJ29" s="7"/>
     </row>
     <row r="30" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="62" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="64"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="52"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7" t="s">
         <v>18</v>
@@ -13019,26 +13029,26 @@
       <c r="AJ30" s="7"/>
     </row>
     <row r="31" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="62" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="64"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="52"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7" t="s">
@@ -13061,106 +13071,106 @@
       <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55" t="s">
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="W32" s="55"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47"/>
-      <c r="AG32" s="47"/>
-      <c r="AH32" s="47"/>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="47"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
     </row>
     <row r="33" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
     </row>
     <row r="34" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="60"/>
-      <c r="B34" s="69" t="s">
+      <c r="A34" s="68"/>
+      <c r="B34" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="71"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="61"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
@@ -13183,24 +13193,24 @@
       <c r="AJ34" s="9"/>
     </row>
     <row r="35" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="67"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="58"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -13221,26 +13231,26 @@
       <c r="AJ35" s="7"/>
     </row>
     <row r="36" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="68" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="64"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="52"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -13263,24 +13273,24 @@
       <c r="AJ36" s="7"/>
     </row>
     <row r="37" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="64"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="52"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -13301,24 +13311,24 @@
       <c r="AJ37" s="7"/>
     </row>
     <row r="38" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="60"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="64"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="52"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
@@ -13339,24 +13349,24 @@
       <c r="AJ38" s="7"/>
     </row>
     <row r="39" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="60"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="64"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="52"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -13377,24 +13387,24 @@
       <c r="AJ39" s="7"/>
     </row>
     <row r="40" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="60"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="64"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="52"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -13415,24 +13425,24 @@
       <c r="AJ40" s="7"/>
     </row>
     <row r="41" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="64"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="52"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -13453,24 +13463,24 @@
       <c r="AJ41" s="7"/>
     </row>
     <row r="42" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="60"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="64"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="52"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -13491,24 +13501,24 @@
       <c r="AJ42" s="7"/>
     </row>
     <row r="43" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="64"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="52"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -13529,24 +13539,24 @@
       <c r="AJ43" s="7"/>
     </row>
     <row r="44" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="60"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="64"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="52"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -13567,24 +13577,24 @@
       <c r="AJ44" s="7"/>
     </row>
     <row r="45" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="64"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="52"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -13605,24 +13615,24 @@
       <c r="AJ45" s="7"/>
     </row>
     <row r="46" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="64"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="52"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
@@ -13643,26 +13653,26 @@
       <c r="AJ46" s="7"/>
     </row>
     <row r="47" spans="1:36" ht="18" customHeight="1">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
       <c r="S47" s="10" t="s">
         <v>18</v>
       </c>
@@ -13673,10 +13683,10 @@
         <v>18</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="X47" s="10" t="s">
         <v>18</v>
@@ -13695,43 +13705,43 @@
       <c r="AJ47" s="10"/>
     </row>
     <row r="48" spans="1:36" ht="18" customHeight="1">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
       <c r="S48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
@@ -13747,34 +13757,34 @@
       <c r="AJ48" s="7"/>
     </row>
     <row r="49" spans="1:36" ht="28.15" customHeight="1">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="66"/>
-      <c r="R49" s="67"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="58"/>
       <c r="S49" s="13">
         <v>45041</v>
       </c>
-      <c r="T49" s="78"/>
-      <c r="U49" s="79"/>
-      <c r="V49" s="79"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="81"/>
+      <c r="X49" s="81"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
@@ -13789,26 +13799,26 @@
       <c r="AJ49" s="14"/>
     </row>
     <row r="50" spans="1:36" ht="18" customHeight="1">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="65"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
@@ -13829,26 +13839,26 @@
       <c r="AJ50" s="7"/>
     </row>
     <row r="51" spans="1:36" ht="28.15" customHeight="1">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
       <c r="S51" s="13"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
@@ -13868,7 +13878,7 @@
       <c r="AI51" s="14"/>
       <c r="AJ51" s="14"/>
     </row>
-    <row r="52" spans="1:36" ht="13.5">
+    <row r="52" spans="1:36" ht="12.75">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -13889,7 +13899,7 @@
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
-      <c r="U52"/>
+      <c r="U52" s="78"/>
       <c r="V52"/>
       <c r="W52"/>
       <c r="X52"/>
@@ -13906,7 +13916,7 @@
       <c r="AI52"/>
       <c r="AJ52"/>
     </row>
-    <row r="53" spans="1:36" ht="13.5">
+    <row r="53" spans="1:36" ht="12.75">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -13944,7 +13954,7 @@
       <c r="AI53"/>
       <c r="AJ53"/>
     </row>
-    <row r="54" spans="1:36" ht="13.5">
+    <row r="54" spans="1:36" ht="12.75">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -13982,7 +13992,7 @@
       <c r="AI54"/>
       <c r="AJ54"/>
     </row>
-    <row r="55" spans="1:36" ht="13.5">
+    <row r="55" spans="1:36" ht="12.75">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -14020,7 +14030,7 @@
       <c r="AI55"/>
       <c r="AJ55"/>
     </row>
-    <row r="56" spans="1:36" ht="13.5">
+    <row r="56" spans="1:36" ht="12.75">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -14058,7 +14068,7 @@
       <c r="AI56"/>
       <c r="AJ56"/>
     </row>
-    <row r="57" spans="1:36" ht="13.5">
+    <row r="57" spans="1:36" ht="12.75">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -14096,7 +14106,7 @@
       <c r="AI57"/>
       <c r="AJ57"/>
     </row>
-    <row r="58" spans="1:36" ht="13.5">
+    <row r="58" spans="1:36" ht="12.75">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -14134,7 +14144,7 @@
       <c r="AI58"/>
       <c r="AJ58"/>
     </row>
-    <row r="59" spans="1:36" ht="13.5">
+    <row r="59" spans="1:36" ht="12.75">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -14172,7 +14182,7 @@
       <c r="AI59"/>
       <c r="AJ59"/>
     </row>
-    <row r="60" spans="1:36" ht="13.5">
+    <row r="60" spans="1:36" ht="12.75">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -14210,7 +14220,7 @@
       <c r="AI60"/>
       <c r="AJ60"/>
     </row>
-    <row r="61" spans="1:36" ht="13.5">
+    <row r="61" spans="1:36" ht="12.75">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -14248,7 +14258,7 @@
       <c r="AI61"/>
       <c r="AJ61"/>
     </row>
-    <row r="62" spans="1:36" ht="13.5">
+    <row r="62" spans="1:36" ht="12.75">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -14286,7 +14296,7 @@
       <c r="AI62"/>
       <c r="AJ62"/>
     </row>
-    <row r="63" spans="1:36" ht="13.5">
+    <row r="63" spans="1:36" ht="12.75">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -14324,7 +14334,7 @@
       <c r="AI63"/>
       <c r="AJ63"/>
     </row>
-    <row r="64" spans="1:36" ht="13.5">
+    <row r="64" spans="1:36" ht="12.75">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -14362,7 +14372,7 @@
       <c r="AI64"/>
       <c r="AJ64"/>
     </row>
-    <row r="65" spans="1:36" ht="13.5">
+    <row r="65" spans="1:36" ht="12.75">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -14400,7 +14410,7 @@
       <c r="AI65"/>
       <c r="AJ65"/>
     </row>
-    <row r="66" spans="1:36" ht="13.5">
+    <row r="66" spans="1:36" ht="12.75">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -14438,7 +14448,7 @@
       <c r="AI66"/>
       <c r="AJ66"/>
     </row>
-    <row r="67" spans="1:36" ht="13.5">
+    <row r="67" spans="1:36" ht="12.75">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -14476,7 +14486,7 @@
       <c r="AI67"/>
       <c r="AJ67"/>
     </row>
-    <row r="68" spans="1:36" ht="13.5">
+    <row r="68" spans="1:36" ht="12.75">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -14514,7 +14524,7 @@
       <c r="AI68"/>
       <c r="AJ68"/>
     </row>
-    <row r="69" spans="1:36" ht="13.5">
+    <row r="69" spans="1:36" ht="12.75">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -14552,7 +14562,7 @@
       <c r="AI69"/>
       <c r="AJ69"/>
     </row>
-    <row r="70" spans="1:36" ht="13.5">
+    <row r="70" spans="1:36" ht="12.75">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -14590,7 +14600,7 @@
       <c r="AI70"/>
       <c r="AJ70"/>
     </row>
-    <row r="71" spans="1:36" ht="13.5">
+    <row r="71" spans="1:36" ht="12.75">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -14628,7 +14638,7 @@
       <c r="AI71"/>
       <c r="AJ71"/>
     </row>
-    <row r="72" spans="1:36" ht="13.5">
+    <row r="72" spans="1:36" ht="12.75">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -14666,7 +14676,7 @@
       <c r="AI72"/>
       <c r="AJ72"/>
     </row>
-    <row r="73" spans="1:36" ht="13.5">
+    <row r="73" spans="1:36" ht="12.75">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -14704,7 +14714,7 @@
       <c r="AI73"/>
       <c r="AJ73"/>
     </row>
-    <row r="74" spans="1:36" ht="13.5">
+    <row r="74" spans="1:36" ht="12.75">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -14742,7 +14752,7 @@
       <c r="AI74"/>
       <c r="AJ74"/>
     </row>
-    <row r="75" spans="1:36" ht="13.5">
+    <row r="75" spans="1:36" ht="12.75">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -14780,7 +14790,7 @@
       <c r="AI75"/>
       <c r="AJ75"/>
     </row>
-    <row r="76" spans="1:36" ht="13.5">
+    <row r="76" spans="1:36" ht="12.75">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -14818,7 +14828,7 @@
       <c r="AI76"/>
       <c r="AJ76"/>
     </row>
-    <row r="77" spans="1:36" ht="13.5">
+    <row r="77" spans="1:36" ht="12.75">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -14856,7 +14866,7 @@
       <c r="AI77"/>
       <c r="AJ77"/>
     </row>
-    <row r="78" spans="1:36" ht="13.5">
+    <row r="78" spans="1:36" ht="12.75">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -14894,7 +14904,7 @@
       <c r="AI78"/>
       <c r="AJ78"/>
     </row>
-    <row r="79" spans="1:36" ht="13.5">
+    <row r="79" spans="1:36" ht="12.75">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -14932,7 +14942,7 @@
       <c r="AI79"/>
       <c r="AJ79"/>
     </row>
-    <row r="80" spans="1:36" ht="13.5">
+    <row r="80" spans="1:36" ht="12.75">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -14970,7 +14980,7 @@
       <c r="AI80"/>
       <c r="AJ80"/>
     </row>
-    <row r="81" spans="1:36" ht="13.5">
+    <row r="81" spans="1:36" ht="12.75">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -15008,7 +15018,7 @@
       <c r="AI81"/>
       <c r="AJ81"/>
     </row>
-    <row r="82" spans="1:36" ht="13.5">
+    <row r="82" spans="1:36" ht="12.75">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -15046,7 +15056,7 @@
       <c r="AI82"/>
       <c r="AJ82"/>
     </row>
-    <row r="83" spans="1:36" ht="13.5">
+    <row r="83" spans="1:36" ht="12.75">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -15084,7 +15094,7 @@
       <c r="AI83"/>
       <c r="AJ83"/>
     </row>
-    <row r="84" spans="1:36" ht="13.5">
+    <row r="84" spans="1:36" ht="12.75">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -15122,7 +15132,7 @@
       <c r="AI84"/>
       <c r="AJ84"/>
     </row>
-    <row r="85" spans="1:36" ht="13.5">
+    <row r="85" spans="1:36" ht="12.75">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -15160,7 +15170,7 @@
       <c r="AI85"/>
       <c r="AJ85"/>
     </row>
-    <row r="86" spans="1:36" ht="13.5">
+    <row r="86" spans="1:36" ht="12.75">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -15198,7 +15208,7 @@
       <c r="AI86"/>
       <c r="AJ86"/>
     </row>
-    <row r="87" spans="1:36" ht="13.5">
+    <row r="87" spans="1:36" ht="12.75">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -15236,7 +15246,7 @@
       <c r="AI87"/>
       <c r="AJ87"/>
     </row>
-    <row r="88" spans="1:36" ht="13.5">
+    <row r="88" spans="1:36" ht="12.75">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -15274,7 +15284,7 @@
       <c r="AI88"/>
       <c r="AJ88"/>
     </row>
-    <row r="89" spans="1:36" ht="13.5">
+    <row r="89" spans="1:36" ht="12.75">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -15312,7 +15322,7 @@
       <c r="AI89"/>
       <c r="AJ89"/>
     </row>
-    <row r="90" spans="1:36" ht="13.5">
+    <row r="90" spans="1:36" ht="12.75">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -15350,7 +15360,7 @@
       <c r="AI90"/>
       <c r="AJ90"/>
     </row>
-    <row r="91" spans="1:36" ht="13.5">
+    <row r="91" spans="1:36" ht="12.75">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -15388,7 +15398,7 @@
       <c r="AI91"/>
       <c r="AJ91"/>
     </row>
-    <row r="92" spans="1:36" ht="13.5">
+    <row r="92" spans="1:36" ht="12.75">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -15426,7 +15436,7 @@
       <c r="AI92"/>
       <c r="AJ92"/>
     </row>
-    <row r="93" spans="1:36" ht="13.5">
+    <row r="93" spans="1:36" ht="12.75">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -15464,7 +15474,7 @@
       <c r="AI93"/>
       <c r="AJ93"/>
     </row>
-    <row r="94" spans="1:36" ht="13.5">
+    <row r="94" spans="1:36" ht="12.75">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -15502,7 +15512,7 @@
       <c r="AI94"/>
       <c r="AJ94"/>
     </row>
-    <row r="95" spans="1:36" ht="13.5">
+    <row r="95" spans="1:36" ht="12.75">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -15540,7 +15550,7 @@
       <c r="AI95"/>
       <c r="AJ95"/>
     </row>
-    <row r="96" spans="1:36" ht="13.5">
+    <row r="96" spans="1:36" ht="12.75">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -15578,7 +15588,7 @@
       <c r="AI96"/>
       <c r="AJ96"/>
     </row>
-    <row r="97" spans="1:36" ht="13.5">
+    <row r="97" spans="1:36" ht="12.75">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -15616,7 +15626,7 @@
       <c r="AI97"/>
       <c r="AJ97"/>
     </row>
-    <row r="98" spans="1:36" ht="13.5">
+    <row r="98" spans="1:36" ht="12.75">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -15654,7 +15664,7 @@
       <c r="AI98"/>
       <c r="AJ98"/>
     </row>
-    <row r="99" spans="1:36" ht="13.5">
+    <row r="99" spans="1:36" ht="12.75">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -15692,7 +15702,7 @@
       <c r="AI99"/>
       <c r="AJ99"/>
     </row>
-    <row r="100" spans="1:36" ht="13.5">
+    <row r="100" spans="1:36" ht="12.75">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -15730,7 +15740,7 @@
       <c r="AI100"/>
       <c r="AJ100"/>
     </row>
-    <row r="101" spans="1:36" ht="13.5">
+    <row r="101" spans="1:36" ht="12.75">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -15768,7 +15778,7 @@
       <c r="AI101"/>
       <c r="AJ101"/>
     </row>
-    <row r="102" spans="1:36" ht="13.5">
+    <row r="102" spans="1:36" ht="12.75">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -15806,7 +15816,7 @@
       <c r="AI102"/>
       <c r="AJ102"/>
     </row>
-    <row r="103" spans="1:36" ht="13.5">
+    <row r="103" spans="1:36" ht="12.75">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -15844,7 +15854,7 @@
       <c r="AI103"/>
       <c r="AJ103"/>
     </row>
-    <row r="104" spans="1:36" ht="13.5">
+    <row r="104" spans="1:36" ht="12.75">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -15882,7 +15892,7 @@
       <c r="AI104"/>
       <c r="AJ104"/>
     </row>
-    <row r="105" spans="1:36" ht="13.5">
+    <row r="105" spans="1:36" ht="12.75">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -15920,7 +15930,7 @@
       <c r="AI105"/>
       <c r="AJ105"/>
     </row>
-    <row r="106" spans="1:36" ht="13.5">
+    <row r="106" spans="1:36" ht="12.75">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -15958,7 +15968,7 @@
       <c r="AI106"/>
       <c r="AJ106"/>
     </row>
-    <row r="107" spans="1:36" ht="13.5">
+    <row r="107" spans="1:36" ht="12.75">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -15996,7 +16006,7 @@
       <c r="AI107"/>
       <c r="AJ107"/>
     </row>
-    <row r="108" spans="1:36" ht="13.5">
+    <row r="108" spans="1:36" ht="12.75">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -16034,7 +16044,7 @@
       <c r="AI108"/>
       <c r="AJ108"/>
     </row>
-    <row r="109" spans="1:36" ht="13.5">
+    <row r="109" spans="1:36" ht="12.75">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -16072,7 +16082,7 @@
       <c r="AI109"/>
       <c r="AJ109"/>
     </row>
-    <row r="110" spans="1:36" ht="13.5">
+    <row r="110" spans="1:36" ht="12.75">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -16110,7 +16120,7 @@
       <c r="AI110"/>
       <c r="AJ110"/>
     </row>
-    <row r="111" spans="1:36" ht="13.5">
+    <row r="111" spans="1:36" ht="12.75">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -16148,7 +16158,7 @@
       <c r="AI111"/>
       <c r="AJ111"/>
     </row>
-    <row r="112" spans="1:36" ht="13.5">
+    <row r="112" spans="1:36" ht="12.75">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -16186,7 +16196,7 @@
       <c r="AI112"/>
       <c r="AJ112"/>
     </row>
-    <row r="113" spans="1:36" ht="13.5">
+    <row r="113" spans="1:36" ht="12.75">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -16224,7 +16234,7 @@
       <c r="AI113"/>
       <c r="AJ113"/>
     </row>
-    <row r="114" spans="1:36" ht="13.5">
+    <row r="114" spans="1:36" ht="12.75">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -16262,7 +16272,7 @@
       <c r="AI114"/>
       <c r="AJ114"/>
     </row>
-    <row r="115" spans="1:36" ht="13.5">
+    <row r="115" spans="1:36" ht="12.75">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -16300,7 +16310,7 @@
       <c r="AI115"/>
       <c r="AJ115"/>
     </row>
-    <row r="116" spans="1:36" ht="13.5">
+    <row r="116" spans="1:36" ht="12.75">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -16338,7 +16348,7 @@
       <c r="AI116"/>
       <c r="AJ116"/>
     </row>
-    <row r="117" spans="1:36" ht="13.5">
+    <row r="117" spans="1:36" ht="12.75">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -16376,7 +16386,7 @@
       <c r="AI117"/>
       <c r="AJ117"/>
     </row>
-    <row r="118" spans="1:36" ht="13.5">
+    <row r="118" spans="1:36" ht="12.75">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -16414,7 +16424,7 @@
       <c r="AI118"/>
       <c r="AJ118"/>
     </row>
-    <row r="119" spans="1:36" ht="13.5">
+    <row r="119" spans="1:36" ht="12.75">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -16452,7 +16462,7 @@
       <c r="AI119"/>
       <c r="AJ119"/>
     </row>
-    <row r="120" spans="1:36" ht="13.5">
+    <row r="120" spans="1:36" ht="12.75">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -16490,7 +16500,7 @@
       <c r="AI120"/>
       <c r="AJ120"/>
     </row>
-    <row r="121" spans="1:36" ht="13.5">
+    <row r="121" spans="1:36" ht="12.75">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -16528,7 +16538,7 @@
       <c r="AI121"/>
       <c r="AJ121"/>
     </row>
-    <row r="122" spans="1:36" ht="13.5">
+    <row r="122" spans="1:36" ht="12.75">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -16566,7 +16576,7 @@
       <c r="AI122"/>
       <c r="AJ122"/>
     </row>
-    <row r="123" spans="1:36" ht="13.5">
+    <row r="123" spans="1:36" ht="12.75">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -16604,7 +16614,7 @@
       <c r="AI123"/>
       <c r="AJ123"/>
     </row>
-    <row r="124" spans="1:36" ht="13.5">
+    <row r="124" spans="1:36" ht="12.75">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -16642,7 +16652,7 @@
       <c r="AI124"/>
       <c r="AJ124"/>
     </row>
-    <row r="125" spans="1:36" ht="13.5">
+    <row r="125" spans="1:36" ht="12.75">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -16680,7 +16690,7 @@
       <c r="AI125"/>
       <c r="AJ125"/>
     </row>
-    <row r="126" spans="1:36" ht="13.5">
+    <row r="126" spans="1:36" ht="12.75">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -16718,7 +16728,7 @@
       <c r="AI126"/>
       <c r="AJ126"/>
     </row>
-    <row r="127" spans="1:36" ht="13.5">
+    <row r="127" spans="1:36" ht="12.75">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -16756,7 +16766,7 @@
       <c r="AI127"/>
       <c r="AJ127"/>
     </row>
-    <row r="128" spans="1:36" ht="13.5">
+    <row r="128" spans="1:36" ht="12.75">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -16794,7 +16804,7 @@
       <c r="AI128"/>
       <c r="AJ128"/>
     </row>
-    <row r="129" spans="1:36" ht="13.5">
+    <row r="129" spans="1:36" ht="12.75">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -16832,7 +16842,7 @@
       <c r="AI129"/>
       <c r="AJ129"/>
     </row>
-    <row r="130" spans="1:36" ht="13.5">
+    <row r="130" spans="1:36" ht="12.75">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -16870,7 +16880,7 @@
       <c r="AI130"/>
       <c r="AJ130"/>
     </row>
-    <row r="131" spans="1:36" ht="13.5">
+    <row r="131" spans="1:36" ht="12.75">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -16908,7 +16918,7 @@
       <c r="AI131"/>
       <c r="AJ131"/>
     </row>
-    <row r="132" spans="1:36" ht="13.5">
+    <row r="132" spans="1:36" ht="12.75">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -16946,7 +16956,7 @@
       <c r="AI132"/>
       <c r="AJ132"/>
     </row>
-    <row r="133" spans="1:36" ht="13.5">
+    <row r="133" spans="1:36" ht="12.75">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -16984,7 +16994,7 @@
       <c r="AI133"/>
       <c r="AJ133"/>
     </row>
-    <row r="134" spans="1:36" ht="13.5">
+    <row r="134" spans="1:36" ht="12.75">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -17022,7 +17032,7 @@
       <c r="AI134"/>
       <c r="AJ134"/>
     </row>
-    <row r="135" spans="1:36" ht="13.5">
+    <row r="135" spans="1:36" ht="12.75">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -17060,7 +17070,7 @@
       <c r="AI135"/>
       <c r="AJ135"/>
     </row>
-    <row r="136" spans="1:36" ht="13.5">
+    <row r="136" spans="1:36" ht="12.75">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -17098,7 +17108,7 @@
       <c r="AI136"/>
       <c r="AJ136"/>
     </row>
-    <row r="137" spans="1:36" ht="13.5">
+    <row r="137" spans="1:36" ht="12.75">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -17136,7 +17146,7 @@
       <c r="AI137"/>
       <c r="AJ137"/>
     </row>
-    <row r="138" spans="1:36" ht="13.5">
+    <row r="138" spans="1:36" ht="12.75">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -17174,7 +17184,7 @@
       <c r="AI138"/>
       <c r="AJ138"/>
     </row>
-    <row r="139" spans="1:36" ht="13.5">
+    <row r="139" spans="1:36" ht="12.75">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -17212,7 +17222,7 @@
       <c r="AI139"/>
       <c r="AJ139"/>
     </row>
-    <row r="140" spans="1:36" ht="13.5">
+    <row r="140" spans="1:36" ht="12.75">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -17250,7 +17260,7 @@
       <c r="AI140"/>
       <c r="AJ140"/>
     </row>
-    <row r="141" spans="1:36" ht="13.5">
+    <row r="141" spans="1:36" ht="12.75">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -17288,7 +17298,7 @@
       <c r="AI141"/>
       <c r="AJ141"/>
     </row>
-    <row r="142" spans="1:36" ht="13.5">
+    <row r="142" spans="1:36" ht="12.75">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -17326,7 +17336,7 @@
       <c r="AI142"/>
       <c r="AJ142"/>
     </row>
-    <row r="143" spans="1:36" ht="13.5">
+    <row r="143" spans="1:36" ht="12.75">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -17364,7 +17374,7 @@
       <c r="AI143"/>
       <c r="AJ143"/>
     </row>
-    <row r="144" spans="1:36" ht="13.5">
+    <row r="144" spans="1:36" ht="12.75">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -17402,7 +17412,7 @@
       <c r="AI144"/>
       <c r="AJ144"/>
     </row>
-    <row r="145" spans="1:36" ht="13.5">
+    <row r="145" spans="1:36" ht="12.75">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -17440,7 +17450,7 @@
       <c r="AI145"/>
       <c r="AJ145"/>
     </row>
-    <row r="146" spans="1:36" ht="13.5">
+    <row r="146" spans="1:36" ht="12.75">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -17478,7 +17488,7 @@
       <c r="AI146"/>
       <c r="AJ146"/>
     </row>
-    <row r="147" spans="1:36" ht="13.5">
+    <row r="147" spans="1:36" ht="12.75">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -17516,7 +17526,7 @@
       <c r="AI147"/>
       <c r="AJ147"/>
     </row>
-    <row r="148" spans="1:36" ht="13.5">
+    <row r="148" spans="1:36" ht="12.75">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -17554,7 +17564,7 @@
       <c r="AI148"/>
       <c r="AJ148"/>
     </row>
-    <row r="149" spans="1:36" ht="13.5">
+    <row r="149" spans="1:36" ht="12.75">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -17592,7 +17602,7 @@
       <c r="AI149"/>
       <c r="AJ149"/>
     </row>
-    <row r="150" spans="1:36" ht="13.5">
+    <row r="150" spans="1:36" ht="12.75">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -17630,7 +17640,7 @@
       <c r="AI150"/>
       <c r="AJ150"/>
     </row>
-    <row r="151" spans="1:36" ht="13.5">
+    <row r="151" spans="1:36" ht="12.75">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -17668,7 +17678,7 @@
       <c r="AI151"/>
       <c r="AJ151"/>
     </row>
-    <row r="152" spans="1:36" ht="13.5">
+    <row r="152" spans="1:36" ht="12.75">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -17706,7 +17716,7 @@
       <c r="AI152"/>
       <c r="AJ152"/>
     </row>
-    <row r="153" spans="1:36" ht="13.5">
+    <row r="153" spans="1:36" ht="12.75">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -17744,7 +17754,7 @@
       <c r="AI153"/>
       <c r="AJ153"/>
     </row>
-    <row r="154" spans="1:36" ht="13.5">
+    <row r="154" spans="1:36" ht="12.75">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -17782,7 +17792,7 @@
       <c r="AI154"/>
       <c r="AJ154"/>
     </row>
-    <row r="155" spans="1:36" ht="13.5">
+    <row r="155" spans="1:36" ht="12.75">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -17820,7 +17830,7 @@
       <c r="AI155"/>
       <c r="AJ155"/>
     </row>
-    <row r="156" spans="1:36" ht="13.5">
+    <row r="156" spans="1:36" ht="12.75">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -17858,7 +17868,7 @@
       <c r="AI156"/>
       <c r="AJ156"/>
     </row>
-    <row r="157" spans="1:36" ht="13.5">
+    <row r="157" spans="1:36" ht="12.75">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -17896,7 +17906,7 @@
       <c r="AI157"/>
       <c r="AJ157"/>
     </row>
-    <row r="158" spans="1:36" ht="13.5">
+    <row r="158" spans="1:36" ht="12.75">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -17934,7 +17944,7 @@
       <c r="AI158"/>
       <c r="AJ158"/>
     </row>
-    <row r="159" spans="1:36" ht="13.5">
+    <row r="159" spans="1:36" ht="12.75">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -17972,7 +17982,7 @@
       <c r="AI159"/>
       <c r="AJ159"/>
     </row>
-    <row r="160" spans="1:36" ht="13.5">
+    <row r="160" spans="1:36" ht="12.75">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -18010,7 +18020,7 @@
       <c r="AI160"/>
       <c r="AJ160"/>
     </row>
-    <row r="161" spans="1:36" ht="13.5">
+    <row r="161" spans="1:36" ht="12.75">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -18048,7 +18058,7 @@
       <c r="AI161"/>
       <c r="AJ161"/>
     </row>
-    <row r="162" spans="1:36" ht="13.5">
+    <row r="162" spans="1:36" ht="12.75">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -18086,7 +18096,7 @@
       <c r="AI162"/>
       <c r="AJ162"/>
     </row>
-    <row r="163" spans="1:36" ht="13.5">
+    <row r="163" spans="1:36" ht="12.75">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -18124,7 +18134,7 @@
       <c r="AI163"/>
       <c r="AJ163"/>
     </row>
-    <row r="164" spans="1:36" ht="13.5">
+    <row r="164" spans="1:36" ht="12.75">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -18162,7 +18172,7 @@
       <c r="AI164"/>
       <c r="AJ164"/>
     </row>
-    <row r="165" spans="1:36" ht="13.5">
+    <row r="165" spans="1:36" ht="12.75">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -18200,7 +18210,7 @@
       <c r="AI165"/>
       <c r="AJ165"/>
     </row>
-    <row r="166" spans="1:36" ht="13.5">
+    <row r="166" spans="1:36" ht="12.75">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -18238,7 +18248,7 @@
       <c r="AI166"/>
       <c r="AJ166"/>
     </row>
-    <row r="167" spans="1:36" ht="13.5">
+    <row r="167" spans="1:36" ht="12.75">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -18276,7 +18286,7 @@
       <c r="AI167"/>
       <c r="AJ167"/>
     </row>
-    <row r="168" spans="1:36" ht="13.5">
+    <row r="168" spans="1:36" ht="12.75">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -18314,7 +18324,7 @@
       <c r="AI168"/>
       <c r="AJ168"/>
     </row>
-    <row r="169" spans="1:36" ht="13.5">
+    <row r="169" spans="1:36" ht="12.75">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -18352,7 +18362,7 @@
       <c r="AI169"/>
       <c r="AJ169"/>
     </row>
-    <row r="170" spans="1:36" ht="13.5">
+    <row r="170" spans="1:36" ht="12.75">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -18390,7 +18400,7 @@
       <c r="AI170"/>
       <c r="AJ170"/>
     </row>
-    <row r="171" spans="1:36" ht="13.5">
+    <row r="171" spans="1:36" ht="12.75">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -18428,7 +18438,7 @@
       <c r="AI171"/>
       <c r="AJ171"/>
     </row>
-    <row r="172" spans="1:36" ht="13.5">
+    <row r="172" spans="1:36" ht="12.75">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -18466,7 +18476,7 @@
       <c r="AI172"/>
       <c r="AJ172"/>
     </row>
-    <row r="173" spans="1:36" ht="13.5">
+    <row r="173" spans="1:36" ht="12.75">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -18504,7 +18514,7 @@
       <c r="AI173"/>
       <c r="AJ173"/>
     </row>
-    <row r="174" spans="1:36" ht="13.5">
+    <row r="174" spans="1:36" ht="12.75">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -18542,7 +18552,7 @@
       <c r="AI174"/>
       <c r="AJ174"/>
     </row>
-    <row r="175" spans="1:36" ht="13.5">
+    <row r="175" spans="1:36" ht="12.75">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -18580,7 +18590,7 @@
       <c r="AI175"/>
       <c r="AJ175"/>
     </row>
-    <row r="176" spans="1:36" ht="13.5">
+    <row r="176" spans="1:36" ht="12.75">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -18618,7 +18628,7 @@
       <c r="AI176"/>
       <c r="AJ176"/>
     </row>
-    <row r="177" spans="1:36" ht="13.5">
+    <row r="177" spans="1:36" ht="12.75">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -18656,7 +18666,7 @@
       <c r="AI177"/>
       <c r="AJ177"/>
     </row>
-    <row r="178" spans="1:36" ht="13.5">
+    <row r="178" spans="1:36" ht="12.75">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
@@ -18694,7 +18704,7 @@
       <c r="AI178"/>
       <c r="AJ178"/>
     </row>
-    <row r="179" spans="1:36" ht="13.5">
+    <row r="179" spans="1:36" ht="12.75">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -18732,7 +18742,7 @@
       <c r="AI179"/>
       <c r="AJ179"/>
     </row>
-    <row r="180" spans="1:36" ht="13.5">
+    <row r="180" spans="1:36" ht="12.75">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -18770,7 +18780,7 @@
       <c r="AI180"/>
       <c r="AJ180"/>
     </row>
-    <row r="181" spans="1:36" ht="13.5">
+    <row r="181" spans="1:36" ht="12.75">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
@@ -18808,7 +18818,7 @@
       <c r="AI181"/>
       <c r="AJ181"/>
     </row>
-    <row r="182" spans="1:36" ht="13.5">
+    <row r="182" spans="1:36" ht="12.75">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
@@ -18846,7 +18856,7 @@
       <c r="AI182"/>
       <c r="AJ182"/>
     </row>
-    <row r="183" spans="1:36" ht="13.5">
+    <row r="183" spans="1:36" ht="12.75">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -18884,7 +18894,7 @@
       <c r="AI183"/>
       <c r="AJ183"/>
     </row>
-    <row r="184" spans="1:36" ht="13.5">
+    <row r="184" spans="1:36" ht="12.75">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
@@ -18922,7 +18932,7 @@
       <c r="AI184"/>
       <c r="AJ184"/>
     </row>
-    <row r="185" spans="1:36" ht="13.5">
+    <row r="185" spans="1:36" ht="12.75">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
@@ -18960,7 +18970,7 @@
       <c r="AI185"/>
       <c r="AJ185"/>
     </row>
-    <row r="186" spans="1:36" ht="13.5">
+    <row r="186" spans="1:36" ht="12.75">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
@@ -18998,7 +19008,7 @@
       <c r="AI186"/>
       <c r="AJ186"/>
     </row>
-    <row r="187" spans="1:36" ht="13.5">
+    <row r="187" spans="1:36" ht="12.75">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
@@ -19036,7 +19046,7 @@
       <c r="AI187"/>
       <c r="AJ187"/>
     </row>
-    <row r="188" spans="1:36" ht="13.5">
+    <row r="188" spans="1:36" ht="12.75">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -19074,7 +19084,7 @@
       <c r="AI188"/>
       <c r="AJ188"/>
     </row>
-    <row r="189" spans="1:36" ht="13.5">
+    <row r="189" spans="1:36" ht="12.75">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -19112,7 +19122,7 @@
       <c r="AI189"/>
       <c r="AJ189"/>
     </row>
-    <row r="190" spans="1:36" ht="13.5">
+    <row r="190" spans="1:36" ht="12.75">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -19150,7 +19160,7 @@
       <c r="AI190"/>
       <c r="AJ190"/>
     </row>
-    <row r="191" spans="1:36" ht="13.5">
+    <row r="191" spans="1:36" ht="12.75">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -19188,7 +19198,7 @@
       <c r="AI191"/>
       <c r="AJ191"/>
     </row>
-    <row r="192" spans="1:36" ht="13.5">
+    <row r="192" spans="1:36" ht="12.75">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -19226,7 +19236,7 @@
       <c r="AI192"/>
       <c r="AJ192"/>
     </row>
-    <row r="193" spans="1:36" ht="13.5">
+    <row r="193" spans="1:36" ht="12.75">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
@@ -19264,7 +19274,7 @@
       <c r="AI193"/>
       <c r="AJ193"/>
     </row>
-    <row r="194" spans="1:36" ht="13.5">
+    <row r="194" spans="1:36" ht="12.75">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
@@ -19302,7 +19312,7 @@
       <c r="AI194"/>
       <c r="AJ194"/>
     </row>
-    <row r="195" spans="1:36" ht="13.5">
+    <row r="195" spans="1:36" ht="12.75">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
@@ -19340,7 +19350,7 @@
       <c r="AI195"/>
       <c r="AJ195"/>
     </row>
-    <row r="196" spans="1:36" ht="13.5">
+    <row r="196" spans="1:36" ht="12.75">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
@@ -19378,7 +19388,7 @@
       <c r="AI196"/>
       <c r="AJ196"/>
     </row>
-    <row r="197" spans="1:36" ht="13.5">
+    <row r="197" spans="1:36" ht="12.75">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
@@ -19416,7 +19426,7 @@
       <c r="AI197"/>
       <c r="AJ197"/>
     </row>
-    <row r="198" spans="1:36" ht="13.5">
+    <row r="198" spans="1:36" ht="12.75">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
@@ -19454,7 +19464,7 @@
       <c r="AI198"/>
       <c r="AJ198"/>
     </row>
-    <row r="199" spans="1:36" ht="13.5">
+    <row r="199" spans="1:36" ht="12.75">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
@@ -19492,7 +19502,7 @@
       <c r="AI199"/>
       <c r="AJ199"/>
     </row>
-    <row r="200" spans="1:36" ht="13.5">
+    <row r="200" spans="1:36" ht="12.75">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -19530,7 +19540,7 @@
       <c r="AI200"/>
       <c r="AJ200"/>
     </row>
-    <row r="201" spans="1:36" ht="13.5">
+    <row r="201" spans="1:36" ht="12.75">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
@@ -19568,7 +19578,7 @@
       <c r="AI201"/>
       <c r="AJ201"/>
     </row>
-    <row r="202" spans="1:36" ht="13.5">
+    <row r="202" spans="1:36" ht="12.75">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -19606,7 +19616,7 @@
       <c r="AI202"/>
       <c r="AJ202"/>
     </row>
-    <row r="203" spans="1:36" ht="13.5">
+    <row r="203" spans="1:36" ht="12.75">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -19644,7 +19654,7 @@
       <c r="AI203"/>
       <c r="AJ203"/>
     </row>
-    <row r="204" spans="1:36" ht="13.5">
+    <row r="204" spans="1:36" ht="12.75">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
@@ -19682,7 +19692,7 @@
       <c r="AI204"/>
       <c r="AJ204"/>
     </row>
-    <row r="205" spans="1:36" ht="13.5">
+    <row r="205" spans="1:36" ht="12.75">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -19720,7 +19730,7 @@
       <c r="AI205"/>
       <c r="AJ205"/>
     </row>
-    <row r="206" spans="1:36" ht="13.5">
+    <row r="206" spans="1:36" ht="12.75">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -19758,7 +19768,7 @@
       <c r="AI206"/>
       <c r="AJ206"/>
     </row>
-    <row r="207" spans="1:36" ht="13.5">
+    <row r="207" spans="1:36" ht="12.75">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -19796,7 +19806,7 @@
       <c r="AI207"/>
       <c r="AJ207"/>
     </row>
-    <row r="208" spans="1:36" ht="13.5">
+    <row r="208" spans="1:36" ht="12.75">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -19834,7 +19844,7 @@
       <c r="AI208"/>
       <c r="AJ208"/>
     </row>
-    <row r="209" spans="1:36" ht="13.5">
+    <row r="209" spans="1:36" ht="12.75">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -19872,7 +19882,7 @@
       <c r="AI209"/>
       <c r="AJ209"/>
     </row>
-    <row r="210" spans="1:36" ht="13.5">
+    <row r="210" spans="1:36" ht="12.75">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -19910,7 +19920,7 @@
       <c r="AI210"/>
       <c r="AJ210"/>
     </row>
-    <row r="211" spans="1:36" ht="13.5">
+    <row r="211" spans="1:36" ht="12.75">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -19948,7 +19958,7 @@
       <c r="AI211"/>
       <c r="AJ211"/>
     </row>
-    <row r="212" spans="1:36" ht="13.5">
+    <row r="212" spans="1:36" ht="12.75">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -19986,7 +19996,7 @@
       <c r="AI212"/>
       <c r="AJ212"/>
     </row>
-    <row r="213" spans="1:36" ht="13.5">
+    <row r="213" spans="1:36" ht="12.75">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -20024,7 +20034,7 @@
       <c r="AI213"/>
       <c r="AJ213"/>
     </row>
-    <row r="214" spans="1:36" ht="13.5">
+    <row r="214" spans="1:36" ht="12.75">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -20062,7 +20072,7 @@
       <c r="AI214"/>
       <c r="AJ214"/>
     </row>
-    <row r="215" spans="1:36" ht="13.5">
+    <row r="215" spans="1:36" ht="12.75">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -20100,7 +20110,7 @@
       <c r="AI215"/>
       <c r="AJ215"/>
     </row>
-    <row r="216" spans="1:36" ht="13.5">
+    <row r="216" spans="1:36" ht="12.75">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -20138,7 +20148,7 @@
       <c r="AI216"/>
       <c r="AJ216"/>
     </row>
-    <row r="217" spans="1:36" ht="13.5">
+    <row r="217" spans="1:36" ht="12.75">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -20176,7 +20186,7 @@
       <c r="AI217"/>
       <c r="AJ217"/>
     </row>
-    <row r="218" spans="1:36" ht="13.5">
+    <row r="218" spans="1:36" ht="12.75">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -20214,7 +20224,7 @@
       <c r="AI218"/>
       <c r="AJ218"/>
     </row>
-    <row r="219" spans="1:36" ht="13.5">
+    <row r="219" spans="1:36" ht="12.75">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -20252,7 +20262,7 @@
       <c r="AI219"/>
       <c r="AJ219"/>
     </row>
-    <row r="220" spans="1:36" ht="13.5">
+    <row r="220" spans="1:36" ht="12.75">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -20290,7 +20300,7 @@
       <c r="AI220"/>
       <c r="AJ220"/>
     </row>
-    <row r="221" spans="1:36" ht="13.5">
+    <row r="221" spans="1:36" ht="12.75">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -20328,7 +20338,7 @@
       <c r="AI221"/>
       <c r="AJ221"/>
     </row>
-    <row r="222" spans="1:36" ht="13.5">
+    <row r="222" spans="1:36" ht="12.75">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -20366,7 +20376,7 @@
       <c r="AI222"/>
       <c r="AJ222"/>
     </row>
-    <row r="223" spans="1:36" ht="13.5">
+    <row r="223" spans="1:36" ht="12.75">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -20404,7 +20414,7 @@
       <c r="AI223"/>
       <c r="AJ223"/>
     </row>
-    <row r="224" spans="1:36" ht="13.5">
+    <row r="224" spans="1:36" ht="12.75">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -20442,7 +20452,7 @@
       <c r="AI224"/>
       <c r="AJ224"/>
     </row>
-    <row r="225" spans="1:36" ht="13.5">
+    <row r="225" spans="1:36" ht="12.75">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -20480,7 +20490,7 @@
       <c r="AI225"/>
       <c r="AJ225"/>
     </row>
-    <row r="226" spans="1:36" ht="13.5">
+    <row r="226" spans="1:36" ht="12.75">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -20518,7 +20528,7 @@
       <c r="AI226"/>
       <c r="AJ226"/>
     </row>
-    <row r="227" spans="1:36" ht="13.5">
+    <row r="227" spans="1:36" ht="12.75">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -20556,7 +20566,7 @@
       <c r="AI227"/>
       <c r="AJ227"/>
     </row>
-    <row r="228" spans="1:36" ht="13.5">
+    <row r="228" spans="1:36" ht="12.75">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -20594,7 +20604,7 @@
       <c r="AI228"/>
       <c r="AJ228"/>
     </row>
-    <row r="229" spans="1:36" ht="13.5">
+    <row r="229" spans="1:36" ht="12.75">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
@@ -20632,7 +20642,7 @@
       <c r="AI229"/>
       <c r="AJ229"/>
     </row>
-    <row r="230" spans="1:36" ht="13.5">
+    <row r="230" spans="1:36" ht="12.75">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
@@ -20670,7 +20680,7 @@
       <c r="AI230"/>
       <c r="AJ230"/>
     </row>
-    <row r="231" spans="1:36" ht="13.5">
+    <row r="231" spans="1:36" ht="12.75">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
@@ -20708,7 +20718,7 @@
       <c r="AI231"/>
       <c r="AJ231"/>
     </row>
-    <row r="232" spans="1:36" ht="13.5">
+    <row r="232" spans="1:36" ht="12.75">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
@@ -20746,7 +20756,7 @@
       <c r="AI232"/>
       <c r="AJ232"/>
     </row>
-    <row r="233" spans="1:36" ht="13.5">
+    <row r="233" spans="1:36" ht="12.75">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
@@ -20784,7 +20794,7 @@
       <c r="AI233"/>
       <c r="AJ233"/>
     </row>
-    <row r="234" spans="1:36" ht="13.5">
+    <row r="234" spans="1:36" ht="12.75">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
@@ -20822,7 +20832,7 @@
       <c r="AI234"/>
       <c r="AJ234"/>
     </row>
-    <row r="235" spans="1:36" ht="13.5">
+    <row r="235" spans="1:36" ht="12.75">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
@@ -20860,7 +20870,7 @@
       <c r="AI235"/>
       <c r="AJ235"/>
     </row>
-    <row r="236" spans="1:36" ht="13.5">
+    <row r="236" spans="1:36" ht="12.75">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
@@ -20898,7 +20908,7 @@
       <c r="AI236"/>
       <c r="AJ236"/>
     </row>
-    <row r="237" spans="1:36" ht="13.5">
+    <row r="237" spans="1:36" ht="12.75">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
@@ -20936,7 +20946,7 @@
       <c r="AI237"/>
       <c r="AJ237"/>
     </row>
-    <row r="238" spans="1:36" ht="13.5">
+    <row r="238" spans="1:36" ht="12.75">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
@@ -20974,7 +20984,7 @@
       <c r="AI238"/>
       <c r="AJ238"/>
     </row>
-    <row r="239" spans="1:36" ht="13.5">
+    <row r="239" spans="1:36" ht="12.75">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
@@ -21012,7 +21022,7 @@
       <c r="AI239"/>
       <c r="AJ239"/>
     </row>
-    <row r="240" spans="1:36" ht="13.5">
+    <row r="240" spans="1:36" ht="12.75">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
@@ -21050,7 +21060,7 @@
       <c r="AI240"/>
       <c r="AJ240"/>
     </row>
-    <row r="241" spans="1:36" ht="13.5">
+    <row r="241" spans="1:36" ht="12.75">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
@@ -21088,7 +21098,7 @@
       <c r="AI241"/>
       <c r="AJ241"/>
     </row>
-    <row r="242" spans="1:36" ht="13.5">
+    <row r="242" spans="1:36" ht="12.75">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
@@ -21126,7 +21136,7 @@
       <c r="AI242"/>
       <c r="AJ242"/>
     </row>
-    <row r="243" spans="1:36" ht="13.5">
+    <row r="243" spans="1:36" ht="12.75">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
@@ -21164,7 +21174,7 @@
       <c r="AI243"/>
       <c r="AJ243"/>
     </row>
-    <row r="244" spans="1:36" ht="13.5">
+    <row r="244" spans="1:36" ht="12.75">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
@@ -21202,7 +21212,7 @@
       <c r="AI244"/>
       <c r="AJ244"/>
     </row>
-    <row r="245" spans="1:36" ht="13.5">
+    <row r="245" spans="1:36" ht="12.75">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
@@ -21240,7 +21250,7 @@
       <c r="AI245"/>
       <c r="AJ245"/>
     </row>
-    <row r="246" spans="1:36" ht="13.5">
+    <row r="246" spans="1:36" ht="12.75">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
@@ -21278,7 +21288,7 @@
       <c r="AI246"/>
       <c r="AJ246"/>
     </row>
-    <row r="247" spans="1:36" ht="13.5">
+    <row r="247" spans="1:36" ht="12.75">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
@@ -21316,7 +21326,7 @@
       <c r="AI247"/>
       <c r="AJ247"/>
     </row>
-    <row r="248" spans="1:36" ht="13.5">
+    <row r="248" spans="1:36" ht="12.75">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
@@ -21354,7 +21364,7 @@
       <c r="AI248"/>
       <c r="AJ248"/>
     </row>
-    <row r="249" spans="1:36" ht="13.5">
+    <row r="249" spans="1:36" ht="12.75">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
@@ -21392,7 +21402,7 @@
       <c r="AI249"/>
       <c r="AJ249"/>
     </row>
-    <row r="250" spans="1:36" ht="13.5">
+    <row r="250" spans="1:36" ht="12.75">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
@@ -21430,7 +21440,7 @@
       <c r="AI250"/>
       <c r="AJ250"/>
     </row>
-    <row r="251" spans="1:36" ht="13.5">
+    <row r="251" spans="1:36" ht="12.75">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
@@ -21468,7 +21478,7 @@
       <c r="AI251"/>
       <c r="AJ251"/>
     </row>
-    <row r="252" spans="1:36" ht="13.5">
+    <row r="252" spans="1:36" ht="12.75">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
@@ -21506,7 +21516,7 @@
       <c r="AI252"/>
       <c r="AJ252"/>
     </row>
-    <row r="253" spans="1:36" ht="13.5">
+    <row r="253" spans="1:36" ht="12.75">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
@@ -21544,7 +21554,7 @@
       <c r="AI253"/>
       <c r="AJ253"/>
     </row>
-    <row r="254" spans="1:36" ht="13.5">
+    <row r="254" spans="1:36" ht="12.75">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
@@ -21582,7 +21592,7 @@
       <c r="AI254"/>
       <c r="AJ254"/>
     </row>
-    <row r="255" spans="1:36" ht="13.5">
+    <row r="255" spans="1:36" ht="12.75">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
@@ -21622,6 +21632,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B32:R33"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="A51:R51"/>
+    <mergeCell ref="A5:A25"/>
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="B46:R46"/>
+    <mergeCell ref="A47:R47"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="A50:R50"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B43:R43"/>
+    <mergeCell ref="B44:R44"/>
+    <mergeCell ref="B45:R45"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="B35:R35"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B8:R8"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
@@ -21638,74 +21716,6 @@
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B35:R35"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B45:R45"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="A51:R51"/>
-    <mergeCell ref="A5:A25"/>
-    <mergeCell ref="A26:A46"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="B46:R46"/>
-    <mergeCell ref="A47:R47"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="A50:R50"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B43:R43"/>
-    <mergeCell ref="B44:R44"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="B32:R33"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AI32:AI33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
